--- a/trunk/SEP/Time Log & Planned Weekly/Timelog_HuyHuynh_SEP.xlsx
+++ b/trunk/SEP/Time Log & Planned Weekly/Timelog_HuyHuynh_SEP.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLog" sheetId="1" r:id="rId1"/>
-    <sheet name="Planned Weekly Effort W#4" sheetId="2" r:id="rId2"/>
+    <sheet name="Planned Weekly Effort W#4" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>Time Recording Log For:    POS Project</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>15/8/2012</t>
+  </si>
+  <si>
+    <t>AVG (hours/week)</t>
   </si>
 </sst>
 </file>
@@ -820,6 +823,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -829,100 +841,91 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1240,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M109"/>
+  <dimension ref="A2:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1254,9 @@
     <col min="1" max="1" width="7.42578125" style="26" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="26"/>
     <col min="3" max="3" width="10.7109375" style="26" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="26"/>
+    <col min="4" max="4" width="9.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="26" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="26"/>
     <col min="7" max="7" width="14" style="26" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" style="26" customWidth="1"/>
     <col min="9" max="9" width="7.140625" style="26" customWidth="1"/>
@@ -1335,7 +1340,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96">
+      <c r="A7" s="88">
         <v>1</v>
       </c>
       <c r="B7" s="31">
@@ -1368,7 +1373,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="34"/>
@@ -1387,7 +1392,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="36"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -1400,7 +1405,7 @@
       <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="97"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -1413,29 +1418,29 @@
       <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
       <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
       <c r="L12" s="26" t="s">
         <v>21</v>
       </c>
@@ -1445,7 +1450,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="96">
+      <c r="A13" s="88">
         <v>2</v>
       </c>
       <c r="B13" s="31">
@@ -1478,7 +1483,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="31">
         <v>41051</v>
       </c>
@@ -1503,28 +1508,28 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="88">
+      <c r="A15" s="89"/>
+      <c r="B15" s="91">
         <v>41052</v>
       </c>
-      <c r="C15" s="90">
+      <c r="C15" s="93">
         <v>0.875</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="93">
         <v>0.9375</v>
       </c>
-      <c r="E15" s="92">
-        <v>0</v>
-      </c>
-      <c r="F15" s="92">
+      <c r="E15" s="95">
+        <v>0</v>
+      </c>
+      <c r="F15" s="95">
         <v>1.5</v>
       </c>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="95" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="38"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
       <c r="L15" s="26" t="s">
         <v>26</v>
       </c>
@@ -1534,16 +1539,16 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="97"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
       <c r="L16" s="26" t="s">
         <v>27</v>
       </c>
@@ -1553,7 +1558,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -1565,45 +1570,45 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82">
+      <c r="A18" s="85">
         <v>3</v>
       </c>
-      <c r="B18" s="102">
+      <c r="B18" s="97">
         <v>41057</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="99">
         <v>0.375</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="99">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E18" s="85">
-        <v>0</v>
-      </c>
-      <c r="F18" s="85">
+      <c r="E18" s="105">
+        <v>0</v>
+      </c>
+      <c r="F18" s="105">
         <v>2</v>
       </c>
-      <c r="G18" s="85" t="s">
+      <c r="G18" s="105" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="25"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="43">
         <v>41058</v>
       </c>
@@ -1627,7 +1632,7 @@
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="43">
         <v>41059</v>
       </c>
@@ -1651,7 +1656,7 @@
       <c r="J21" s="61"/>
     </row>
     <row r="22" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="43">
         <v>41059</v>
       </c>
@@ -1675,103 +1680,103 @@
       <c r="J22" s="61"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="107">
+      <c r="A23" s="86"/>
+      <c r="B23" s="104">
         <v>41060</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="99">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="99">
         <v>0.875</v>
       </c>
-      <c r="E23" s="85">
-        <v>0</v>
-      </c>
-      <c r="F23" s="85">
+      <c r="E23" s="105">
+        <v>0</v>
+      </c>
+      <c r="F23" s="105">
         <v>2</v>
       </c>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="87"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="87"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="106"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="102">
+      <c r="A27" s="86"/>
+      <c r="B27" s="97">
         <v>41061</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="99">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="99">
         <v>0.875</v>
       </c>
-      <c r="E27" s="85">
-        <v>0</v>
-      </c>
-      <c r="F27" s="85">
+      <c r="E27" s="105">
+        <v>0</v>
+      </c>
+      <c r="F27" s="105">
         <v>1</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -1783,153 +1788,153 @@
       <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="114"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
-      <c r="I30" s="85"/>
+      <c r="I30" s="105"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="115"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="102"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="87"/>
+      <c r="I31" s="106"/>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="84"/>
-      <c r="B32" s="116"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="50"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
-      <c r="I32" s="86"/>
+      <c r="I32" s="107"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="82">
+      <c r="A33" s="85">
         <v>4</v>
       </c>
-      <c r="B33" s="102">
+      <c r="B33" s="97">
         <v>41065</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="99">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D33" s="104">
+      <c r="D33" s="99">
         <v>0.875</v>
       </c>
-      <c r="E33" s="85">
-        <v>0</v>
-      </c>
-      <c r="F33" s="85">
+      <c r="E33" s="105">
+        <v>0</v>
+      </c>
+      <c r="F33" s="105">
         <v>1</v>
       </c>
-      <c r="G33" s="85" t="s">
+      <c r="G33" s="105" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="25"/>
-      <c r="I33" s="85"/>
+      <c r="I33" s="105"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="87"/>
+      <c r="I34" s="106"/>
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="86"/>
+      <c r="I35" s="107"/>
       <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="102">
+      <c r="A36" s="86"/>
+      <c r="B36" s="97">
         <v>41066</v>
       </c>
-      <c r="C36" s="104">
+      <c r="C36" s="99">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D36" s="104">
+      <c r="D36" s="99">
         <v>0.875</v>
       </c>
-      <c r="E36" s="85">
-        <v>0</v>
-      </c>
-      <c r="F36" s="85">
+      <c r="E36" s="105">
+        <v>0</v>
+      </c>
+      <c r="F36" s="105">
         <v>1</v>
       </c>
-      <c r="G36" s="85" t="s">
+      <c r="G36" s="105" t="s">
         <v>42</v>
       </c>
       <c r="H36" s="25"/>
-      <c r="I36" s="85"/>
+      <c r="I36" s="105"/>
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
       <c r="H37" s="25"/>
-      <c r="I37" s="87"/>
+      <c r="I37" s="106"/>
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
+      <c r="A38" s="86"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="87"/>
+      <c r="I38" s="106"/>
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="83"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="86"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="86"/>
+      <c r="I39" s="107"/>
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="84"/>
+      <c r="A40" s="87"/>
       <c r="B40" s="31">
         <v>41067</v>
       </c>
@@ -2001,117 +2006,117 @@
       <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="96">
+      <c r="A45" s="88">
         <v>5</v>
       </c>
-      <c r="B45" s="88">
+      <c r="B45" s="91">
         <v>41075</v>
       </c>
-      <c r="C45" s="90">
+      <c r="C45" s="93">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D45" s="90">
+      <c r="D45" s="93">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E45" s="92">
-        <v>0</v>
-      </c>
-      <c r="F45" s="92">
+      <c r="E45" s="95">
+        <v>0</v>
+      </c>
+      <c r="F45" s="95">
         <v>3</v>
       </c>
-      <c r="G45" s="92" t="s">
+      <c r="G45" s="95" t="s">
         <v>43</v>
       </c>
       <c r="H45" s="38"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="97"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
+      <c r="A46" s="89"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="114"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="97"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
+      <c r="A47" s="89"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="97"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
+      <c r="A48" s="89"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="106"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="97"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
+      <c r="A49" s="89"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="96"/>
+      <c r="F49" s="96"/>
+      <c r="G49" s="96"/>
       <c r="H49" s="33"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="107"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
-      <c r="B50" s="88">
+      <c r="A50" s="89"/>
+      <c r="B50" s="91">
         <v>41076</v>
       </c>
-      <c r="C50" s="90">
+      <c r="C50" s="93">
         <v>0.375</v>
       </c>
-      <c r="D50" s="90">
+      <c r="D50" s="93">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E50" s="92">
-        <v>0</v>
-      </c>
-      <c r="F50" s="92">
+      <c r="E50" s="95">
+        <v>0</v>
+      </c>
+      <c r="F50" s="95">
         <v>2.5</v>
       </c>
-      <c r="G50" s="92" t="s">
+      <c r="G50" s="95" t="s">
         <v>41</v>
       </c>
       <c r="H50" s="38"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="97"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="94"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="96"/>
+      <c r="G51" s="96"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
     </row>
     <row r="52" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="98"/>
+      <c r="A52" s="90"/>
       <c r="B52" s="64">
         <v>41076</v>
       </c>
@@ -2135,93 +2140,93 @@
       <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="96">
+      <c r="A53" s="88">
         <v>6</v>
       </c>
-      <c r="B53" s="88">
+      <c r="B53" s="91">
         <v>41077</v>
       </c>
-      <c r="C53" s="90">
+      <c r="C53" s="93">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D53" s="90">
+      <c r="D53" s="93">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E53" s="92">
-        <v>0</v>
-      </c>
-      <c r="F53" s="92">
+      <c r="E53" s="95">
+        <v>0</v>
+      </c>
+      <c r="F53" s="95">
         <v>4</v>
       </c>
-      <c r="G53" s="92" t="s">
+      <c r="G53" s="95" t="s">
         <v>45</v>
       </c>
       <c r="H53" s="38"/>
-      <c r="I53" s="85"/>
+      <c r="I53" s="105"/>
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="97"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
+      <c r="G54" s="114"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="87"/>
+      <c r="I54" s="106"/>
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="97"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
+      <c r="A55" s="89"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="116"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="106"/>
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="97"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="95"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="114"/>
+      <c r="F56" s="114"/>
+      <c r="G56" s="114"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="87"/>
+      <c r="I56" s="106"/>
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="97"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
+      <c r="A57" s="89"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="114"/>
+      <c r="G57" s="114"/>
       <c r="H57" s="38"/>
-      <c r="I57" s="87"/>
+      <c r="I57" s="106"/>
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="97"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
+      <c r="A58" s="89"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
       <c r="H58" s="38"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="106"/>
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="97"/>
+      <c r="A59" s="89"/>
       <c r="B59" s="64">
         <v>41078</v>
       </c>
@@ -2245,7 +2250,7 @@
       <c r="J59" s="54"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="97"/>
+      <c r="A60" s="89"/>
       <c r="B60" s="64">
         <v>41078</v>
       </c>
@@ -2269,7 +2274,7 @@
       <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="97"/>
+      <c r="A61" s="89"/>
       <c r="B61" s="64">
         <v>41079</v>
       </c>
@@ -2295,7 +2300,7 @@
       <c r="J61" s="35"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="97"/>
+      <c r="A62" s="89"/>
       <c r="B62" s="64">
         <v>41079</v>
       </c>
@@ -2319,7 +2324,7 @@
       <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="97"/>
+      <c r="A63" s="89"/>
       <c r="B63" s="64">
         <v>41080</v>
       </c>
@@ -2343,7 +2348,7 @@
       <c r="J63" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="98"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="64">
         <v>40352</v>
       </c>
@@ -2393,7 +2398,7 @@
       <c r="J65" s="55"/>
     </row>
     <row r="66" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="111">
+      <c r="A66" s="82">
         <v>9</v>
       </c>
       <c r="B66" s="64">
@@ -2419,7 +2424,7 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="112"/>
+      <c r="A67" s="83"/>
       <c r="B67" s="64">
         <v>41102</v>
       </c>
@@ -2443,7 +2448,7 @@
       <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="112"/>
+      <c r="A68" s="83"/>
       <c r="B68" s="64">
         <v>41103</v>
       </c>
@@ -2467,7 +2472,7 @@
       <c r="J68" s="54"/>
     </row>
     <row r="69" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="112"/>
+      <c r="A69" s="83"/>
       <c r="B69" s="57">
         <v>41104</v>
       </c>
@@ -2491,7 +2496,7 @@
       <c r="J69" s="54"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="113"/>
+      <c r="A70" s="84"/>
       <c r="B70" s="64">
         <v>41105</v>
       </c>
@@ -2515,7 +2520,7 @@
       <c r="J70" s="54"/>
     </row>
     <row r="71" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="96">
+      <c r="A71" s="88">
         <v>10</v>
       </c>
       <c r="B71" s="64">
@@ -2541,7 +2546,7 @@
       <c r="J71" s="54"/>
     </row>
     <row r="72" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="97"/>
+      <c r="A72" s="89"/>
       <c r="B72" s="57">
         <v>41107</v>
       </c>
@@ -2565,7 +2570,7 @@
       <c r="J72" s="24"/>
     </row>
     <row r="73" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="97"/>
+      <c r="A73" s="89"/>
       <c r="B73" s="64">
         <v>41108</v>
       </c>
@@ -2589,7 +2594,7 @@
       <c r="J73" s="54"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="97"/>
+      <c r="A74" s="89"/>
       <c r="B74" s="64">
         <v>41109</v>
       </c>
@@ -2609,11 +2614,11 @@
         <v>52</v>
       </c>
       <c r="H74" s="79"/>
-      <c r="I74" s="85"/>
+      <c r="I74" s="105"/>
       <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="97"/>
+      <c r="A75" s="89"/>
       <c r="B75" s="57">
         <v>41110</v>
       </c>
@@ -2633,11 +2638,11 @@
         <v>53</v>
       </c>
       <c r="H75" s="38"/>
-      <c r="I75" s="87"/>
+      <c r="I75" s="106"/>
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="97"/>
+      <c r="A76" s="89"/>
       <c r="B76" s="64">
         <v>41111</v>
       </c>
@@ -2657,11 +2662,11 @@
         <v>54</v>
       </c>
       <c r="H76" s="38"/>
-      <c r="I76" s="87"/>
+      <c r="I76" s="106"/>
       <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="97"/>
+      <c r="A77" s="89"/>
       <c r="B77" s="64">
         <v>41112</v>
       </c>
@@ -2681,11 +2686,11 @@
         <v>55</v>
       </c>
       <c r="H77" s="38"/>
-      <c r="I77" s="87"/>
+      <c r="I77" s="106"/>
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="97"/>
+      <c r="A78" s="89"/>
       <c r="B78" s="57">
         <v>41113</v>
       </c>
@@ -2705,11 +2710,11 @@
         <v>56</v>
       </c>
       <c r="H78" s="38"/>
-      <c r="I78" s="87"/>
+      <c r="I78" s="106"/>
       <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="97"/>
+      <c r="A79" s="89"/>
       <c r="B79" s="57">
         <v>41114</v>
       </c>
@@ -2729,11 +2734,11 @@
         <v>57</v>
       </c>
       <c r="H79" s="38"/>
-      <c r="I79" s="87"/>
+      <c r="I79" s="106"/>
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="97"/>
+      <c r="A80" s="89"/>
       <c r="B80" s="64">
         <v>41115</v>
       </c>
@@ -2757,7 +2762,7 @@
       <c r="J80" s="54"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="97"/>
+      <c r="A81" s="89"/>
       <c r="B81" s="36">
         <v>41116</v>
       </c>
@@ -2781,7 +2786,7 @@
       <c r="J81" s="35"/>
     </row>
     <row r="82" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="97"/>
+      <c r="A82" s="89"/>
       <c r="B82" s="64">
         <v>41117</v>
       </c>
@@ -2805,7 +2810,7 @@
       <c r="J82" s="35"/>
     </row>
     <row r="83" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="97"/>
+      <c r="A83" s="89"/>
       <c r="B83" s="36">
         <v>41118</v>
       </c>
@@ -2829,7 +2834,7 @@
       <c r="J83" s="24"/>
     </row>
     <row r="84" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="97"/>
+      <c r="A84" s="89"/>
       <c r="B84" s="57">
         <v>41119</v>
       </c>
@@ -2853,7 +2858,7 @@
       <c r="J84" s="24"/>
     </row>
     <row r="85" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="98"/>
+      <c r="A85" s="90"/>
       <c r="B85" s="36">
         <v>41119</v>
       </c>
@@ -2877,7 +2882,7 @@
       <c r="J85" s="24"/>
     </row>
     <row r="86" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="82">
+      <c r="A86" s="85">
         <v>11</v>
       </c>
       <c r="B86" s="31">
@@ -2903,7 +2908,7 @@
       <c r="J86" s="24"/>
     </row>
     <row r="87" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="83"/>
+      <c r="A87" s="86"/>
       <c r="B87" s="31">
         <v>41120</v>
       </c>
@@ -2927,7 +2932,7 @@
       <c r="J87" s="24"/>
     </row>
     <row r="88" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="83"/>
+      <c r="A88" s="86"/>
       <c r="B88" s="40">
         <v>41121</v>
       </c>
@@ -2951,43 +2956,43 @@
       <c r="J88" s="35"/>
     </row>
     <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="83"/>
-      <c r="B89" s="102">
+      <c r="A89" s="86"/>
+      <c r="B89" s="97">
         <v>41121</v>
       </c>
-      <c r="C89" s="104">
+      <c r="C89" s="99">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D89" s="104">
+      <c r="D89" s="99">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E89" s="85">
-        <v>0</v>
-      </c>
-      <c r="F89" s="85">
+      <c r="E89" s="105">
+        <v>0</v>
+      </c>
+      <c r="F89" s="105">
         <v>7.5</v>
       </c>
-      <c r="G89" s="85" t="s">
+      <c r="G89" s="105" t="s">
         <v>67</v>
       </c>
       <c r="H89" s="25"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
+      <c r="I89" s="105"/>
+      <c r="J89" s="105"/>
     </row>
     <row r="90" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="83"/>
-      <c r="B90" s="103"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="105"/>
-      <c r="E90" s="86"/>
-      <c r="F90" s="86"/>
-      <c r="G90" s="86"/>
+      <c r="A90" s="86"/>
+      <c r="B90" s="98"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="100"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="107"/>
+      <c r="G90" s="107"/>
       <c r="H90" s="24"/>
-      <c r="I90" s="86"/>
-      <c r="J90" s="86"/>
+      <c r="I90" s="107"/>
+      <c r="J90" s="107"/>
     </row>
     <row r="91" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="83"/>
+      <c r="A91" s="86"/>
       <c r="B91" s="63">
         <v>41121</v>
       </c>
@@ -3011,7 +3016,7 @@
       <c r="J91" s="60"/>
     </row>
     <row r="92" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="83"/>
+      <c r="A92" s="86"/>
       <c r="B92" s="63">
         <v>41122</v>
       </c>
@@ -3035,7 +3040,7 @@
       <c r="J92" s="60"/>
     </row>
     <row r="93" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="83"/>
+      <c r="A93" s="86"/>
       <c r="B93" s="43">
         <v>41123</v>
       </c>
@@ -3059,7 +3064,7 @@
       <c r="J93" s="54"/>
     </row>
     <row r="94" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="83"/>
+      <c r="A94" s="86"/>
       <c r="B94" s="31">
         <v>41123</v>
       </c>
@@ -3083,7 +3088,7 @@
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="83"/>
+      <c r="A95" s="86"/>
       <c r="B95" s="52">
         <v>41124</v>
       </c>
@@ -3107,7 +3112,7 @@
       <c r="J95" s="35"/>
     </row>
     <row r="96" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="83"/>
+      <c r="A96" s="86"/>
       <c r="B96" s="40">
         <v>41124</v>
       </c>
@@ -3131,7 +3136,7 @@
       <c r="J96" s="24"/>
     </row>
     <row r="97" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="83"/>
+      <c r="A97" s="86"/>
       <c r="B97" s="31">
         <v>41125</v>
       </c>
@@ -3155,7 +3160,7 @@
       <c r="J97" s="24"/>
     </row>
     <row r="98" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="84"/>
+      <c r="A98" s="87"/>
       <c r="B98" s="31">
         <v>41126</v>
       </c>
@@ -3389,59 +3394,84 @@
       <c r="B108" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C108" s="99" t="s">
+      <c r="C108" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="100"/>
-      <c r="E108" s="100"/>
-      <c r="F108" s="100"/>
-      <c r="G108" s="100"/>
-      <c r="H108" s="100"/>
-      <c r="I108" s="100"/>
-      <c r="J108" s="101"/>
+      <c r="D108" s="112"/>
+      <c r="E108" s="112"/>
+      <c r="F108" s="112"/>
+      <c r="G108" s="112"/>
+      <c r="H108" s="112"/>
+      <c r="I108" s="112"/>
+      <c r="J108" s="113"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E109" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="F109" s="26">
         <f>SUM(F7:F107)</f>
         <v>225</v>
       </c>
-      <c r="G109" s="26">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E110" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F110" s="26">
         <f>F109/12</f>
         <v>18.75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A86:A98"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="I74:I79"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A53:A64"/>
+    <mergeCell ref="A71:A85"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="C108:J108"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="I18:I19"/>
@@ -3466,53 +3496,36 @@
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="G23:G26"/>
     <mergeCell ref="H23:H26"/>
-    <mergeCell ref="C108:J108"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="A86:A98"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="I74:I79"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A53:A64"/>
-    <mergeCell ref="A71:A85"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3791,7 +3804,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/trunk/SEP/Time Log & Planned Weekly/Timelog_HuyHuynh_SEP.xlsx
+++ b/trunk/SEP/Time Log & Planned Weekly/Timelog_HuyHuynh_SEP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLog" sheetId="1" r:id="rId1"/>
@@ -823,6 +823,93 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -832,54 +919,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -887,45 +926,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M110"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,8 +1262,9 @@
     <col min="9" max="9" width="7.140625" style="26" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" style="26" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="26"/>
-    <col min="12" max="12" width="26" style="26" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="26"/>
+    <col min="12" max="12" width="26" style="26" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" style="26" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
@@ -1340,7 +1341,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="88">
+      <c r="A7" s="96">
         <v>1</v>
       </c>
       <c r="B7" s="31">
@@ -1373,7 +1374,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="34"/>
@@ -1392,7 +1393,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="36"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -1405,7 +1406,7 @@
       <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -1418,29 +1419,29 @@
       <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
       <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
       <c r="L12" s="26" t="s">
         <v>21</v>
       </c>
@@ -1450,7 +1451,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88">
+      <c r="A13" s="96">
         <v>2</v>
       </c>
       <c r="B13" s="31">
@@ -1483,7 +1484,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="31">
         <v>41051</v>
       </c>
@@ -1508,28 +1509,28 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="91">
+      <c r="A15" s="97"/>
+      <c r="B15" s="88">
         <v>41052</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="90">
         <v>0.875</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="90">
         <v>0.9375</v>
       </c>
-      <c r="E15" s="95">
-        <v>0</v>
-      </c>
-      <c r="F15" s="95">
+      <c r="E15" s="92">
+        <v>0</v>
+      </c>
+      <c r="F15" s="92">
         <v>1.5</v>
       </c>
-      <c r="G15" s="95" t="s">
+      <c r="G15" s="92" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="38"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
       <c r="L15" s="26" t="s">
         <v>26</v>
       </c>
@@ -1539,16 +1540,16 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="89"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
       <c r="L16" s="26" t="s">
         <v>27</v>
       </c>
@@ -1558,7 +1559,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="90"/>
+      <c r="A17" s="98"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -1570,45 +1571,45 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85">
+      <c r="A18" s="82">
         <v>3</v>
       </c>
-      <c r="B18" s="97">
+      <c r="B18" s="102">
         <v>41057</v>
       </c>
-      <c r="C18" s="99">
+      <c r="C18" s="104">
         <v>0.375</v>
       </c>
-      <c r="D18" s="99">
+      <c r="D18" s="104">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E18" s="105">
-        <v>0</v>
-      </c>
-      <c r="F18" s="105">
+      <c r="E18" s="85">
+        <v>0</v>
+      </c>
+      <c r="F18" s="85">
         <v>2</v>
       </c>
-      <c r="G18" s="105" t="s">
+      <c r="G18" s="85" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="25"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
+      <c r="A20" s="83"/>
       <c r="B20" s="43">
         <v>41058</v>
       </c>
@@ -1632,7 +1633,7 @@
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="43">
         <v>41059</v>
       </c>
@@ -1656,7 +1657,7 @@
       <c r="J21" s="61"/>
     </row>
     <row r="22" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
+      <c r="A22" s="83"/>
       <c r="B22" s="43">
         <v>41059</v>
       </c>
@@ -1680,103 +1681,103 @@
       <c r="J22" s="61"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="104">
+      <c r="A23" s="83"/>
+      <c r="B23" s="107">
         <v>41060</v>
       </c>
-      <c r="C23" s="99">
+      <c r="C23" s="104">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D23" s="99">
+      <c r="D23" s="104">
         <v>0.875</v>
       </c>
-      <c r="E23" s="105">
-        <v>0</v>
-      </c>
-      <c r="F23" s="105">
+      <c r="E23" s="85">
+        <v>0</v>
+      </c>
+      <c r="F23" s="85">
         <v>2</v>
       </c>
-      <c r="G23" s="105" t="s">
+      <c r="G23" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="86"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="106"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="106"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="97">
+      <c r="A27" s="83"/>
+      <c r="B27" s="102">
         <v>41061</v>
       </c>
-      <c r="C27" s="99">
+      <c r="C27" s="104">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D27" s="99">
+      <c r="D27" s="104">
         <v>0.875</v>
       </c>
-      <c r="E27" s="105">
-        <v>0</v>
-      </c>
-      <c r="F27" s="105">
+      <c r="E27" s="85">
+        <v>0</v>
+      </c>
+      <c r="F27" s="85">
         <v>1</v>
       </c>
-      <c r="G27" s="105" t="s">
+      <c r="G27" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="105"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="105"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
+      <c r="A29" s="83"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -1788,153 +1789,153 @@
       <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="101"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="114"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
-      <c r="I30" s="105"/>
+      <c r="I30" s="85"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="102"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="115"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="106"/>
+      <c r="I31" s="86"/>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
-      <c r="B32" s="103"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="116"/>
       <c r="C32" s="50"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
-      <c r="I32" s="107"/>
+      <c r="I32" s="87"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="85">
+      <c r="A33" s="82">
         <v>4</v>
       </c>
-      <c r="B33" s="97">
+      <c r="B33" s="102">
         <v>41065</v>
       </c>
-      <c r="C33" s="99">
+      <c r="C33" s="104">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D33" s="99">
+      <c r="D33" s="104">
         <v>0.875</v>
       </c>
-      <c r="E33" s="105">
-        <v>0</v>
-      </c>
-      <c r="F33" s="105">
+      <c r="E33" s="85">
+        <v>0</v>
+      </c>
+      <c r="F33" s="85">
         <v>1</v>
       </c>
-      <c r="G33" s="105" t="s">
+      <c r="G33" s="85" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="25"/>
-      <c r="I33" s="105"/>
+      <c r="I33" s="85"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="106"/>
+      <c r="I34" s="86"/>
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="86"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="107"/>
+      <c r="I35" s="87"/>
       <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="97">
+      <c r="A36" s="83"/>
+      <c r="B36" s="102">
         <v>41066</v>
       </c>
-      <c r="C36" s="99">
+      <c r="C36" s="104">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D36" s="99">
+      <c r="D36" s="104">
         <v>0.875</v>
       </c>
-      <c r="E36" s="105">
-        <v>0</v>
-      </c>
-      <c r="F36" s="105">
+      <c r="E36" s="85">
+        <v>0</v>
+      </c>
+      <c r="F36" s="85">
         <v>1</v>
       </c>
-      <c r="G36" s="105" t="s">
+      <c r="G36" s="85" t="s">
         <v>42</v>
       </c>
       <c r="H36" s="25"/>
-      <c r="I36" s="105"/>
+      <c r="I36" s="85"/>
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="104"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="86"/>
       <c r="H37" s="25"/>
-      <c r="I37" s="106"/>
+      <c r="I37" s="86"/>
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
-      <c r="B38" s="104"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
+      <c r="A38" s="83"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="106"/>
+      <c r="I38" s="86"/>
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="86"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="107"/>
+      <c r="I39" s="87"/>
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="87"/>
+      <c r="A40" s="84"/>
       <c r="B40" s="31">
         <v>41067</v>
       </c>
@@ -2006,117 +2007,117 @@
       <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="88">
+      <c r="A45" s="96">
         <v>5</v>
       </c>
-      <c r="B45" s="91">
+      <c r="B45" s="88">
         <v>41075</v>
       </c>
-      <c r="C45" s="93">
+      <c r="C45" s="90">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D45" s="93">
+      <c r="D45" s="90">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E45" s="95">
-        <v>0</v>
-      </c>
-      <c r="F45" s="95">
+      <c r="E45" s="92">
+        <v>0</v>
+      </c>
+      <c r="F45" s="92">
         <v>3</v>
       </c>
-      <c r="G45" s="95" t="s">
+      <c r="G45" s="92" t="s">
         <v>43</v>
       </c>
       <c r="H45" s="38"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="89"/>
-      <c r="B46" s="115"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="95"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="86"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="89"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="116"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="86"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="89"/>
-      <c r="B48" s="115"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
-      <c r="G48" s="114"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="94"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="86"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="89"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
       <c r="H49" s="33"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="89"/>
-      <c r="B50" s="91">
+      <c r="A50" s="97"/>
+      <c r="B50" s="88">
         <v>41076</v>
       </c>
-      <c r="C50" s="93">
+      <c r="C50" s="90">
         <v>0.375</v>
       </c>
-      <c r="D50" s="93">
+      <c r="D50" s="90">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E50" s="95">
-        <v>0</v>
-      </c>
-      <c r="F50" s="95">
+      <c r="E50" s="92">
+        <v>0</v>
+      </c>
+      <c r="F50" s="92">
         <v>2.5</v>
       </c>
-      <c r="G50" s="95" t="s">
+      <c r="G50" s="92" t="s">
         <v>41</v>
       </c>
       <c r="H50" s="38"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="89"/>
-      <c r="B51" s="115"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="96"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="106"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="86"/>
     </row>
     <row r="52" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="90"/>
+      <c r="A52" s="98"/>
       <c r="B52" s="64">
         <v>41076</v>
       </c>
@@ -2140,93 +2141,93 @@
       <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="88">
+      <c r="A53" s="96">
         <v>6</v>
       </c>
-      <c r="B53" s="91">
+      <c r="B53" s="88">
         <v>41077</v>
       </c>
-      <c r="C53" s="93">
+      <c r="C53" s="90">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D53" s="93">
+      <c r="D53" s="90">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E53" s="95">
-        <v>0</v>
-      </c>
-      <c r="F53" s="95">
+      <c r="E53" s="92">
+        <v>0</v>
+      </c>
+      <c r="F53" s="92">
         <v>4</v>
       </c>
-      <c r="G53" s="95" t="s">
+      <c r="G53" s="92" t="s">
         <v>45</v>
       </c>
       <c r="H53" s="38"/>
-      <c r="I53" s="105"/>
+      <c r="I53" s="85"/>
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="89"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="114"/>
-      <c r="F54" s="114"/>
-      <c r="G54" s="114"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
+      <c r="G54" s="95"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="106"/>
+      <c r="I54" s="86"/>
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="89"/>
-      <c r="B55" s="115"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="116"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="95"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="106"/>
+      <c r="I55" s="86"/>
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="89"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
+      <c r="A56" s="97"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="106"/>
+      <c r="I56" s="86"/>
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="89"/>
-      <c r="B57" s="115"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
-      <c r="G57" s="114"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="95"/>
+      <c r="G57" s="95"/>
       <c r="H57" s="38"/>
-      <c r="I57" s="106"/>
+      <c r="I57" s="86"/>
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="89"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="96"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="93"/>
+      <c r="G58" s="93"/>
       <c r="H58" s="38"/>
-      <c r="I58" s="106"/>
+      <c r="I58" s="86"/>
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="89"/>
+      <c r="A59" s="97"/>
       <c r="B59" s="64">
         <v>41078</v>
       </c>
@@ -2250,7 +2251,7 @@
       <c r="J59" s="54"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="89"/>
+      <c r="A60" s="97"/>
       <c r="B60" s="64">
         <v>41078</v>
       </c>
@@ -2274,7 +2275,7 @@
       <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="89"/>
+      <c r="A61" s="97"/>
       <c r="B61" s="64">
         <v>41079</v>
       </c>
@@ -2300,7 +2301,7 @@
       <c r="J61" s="35"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="89"/>
+      <c r="A62" s="97"/>
       <c r="B62" s="64">
         <v>41079</v>
       </c>
@@ -2324,7 +2325,7 @@
       <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="89"/>
+      <c r="A63" s="97"/>
       <c r="B63" s="64">
         <v>41080</v>
       </c>
@@ -2348,7 +2349,7 @@
       <c r="J63" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="90"/>
+      <c r="A64" s="98"/>
       <c r="B64" s="64">
         <v>40352</v>
       </c>
@@ -2398,7 +2399,7 @@
       <c r="J65" s="55"/>
     </row>
     <row r="66" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="82">
+      <c r="A66" s="111">
         <v>9</v>
       </c>
       <c r="B66" s="64">
@@ -2424,7 +2425,7 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="83"/>
+      <c r="A67" s="112"/>
       <c r="B67" s="64">
         <v>41102</v>
       </c>
@@ -2448,7 +2449,7 @@
       <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="83"/>
+      <c r="A68" s="112"/>
       <c r="B68" s="64">
         <v>41103</v>
       </c>
@@ -2472,7 +2473,7 @@
       <c r="J68" s="54"/>
     </row>
     <row r="69" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="83"/>
+      <c r="A69" s="112"/>
       <c r="B69" s="57">
         <v>41104</v>
       </c>
@@ -2496,7 +2497,7 @@
       <c r="J69" s="54"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="84"/>
+      <c r="A70" s="113"/>
       <c r="B70" s="64">
         <v>41105</v>
       </c>
@@ -2520,7 +2521,7 @@
       <c r="J70" s="54"/>
     </row>
     <row r="71" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="88">
+      <c r="A71" s="96">
         <v>10</v>
       </c>
       <c r="B71" s="64">
@@ -2546,7 +2547,7 @@
       <c r="J71" s="54"/>
     </row>
     <row r="72" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="89"/>
+      <c r="A72" s="97"/>
       <c r="B72" s="57">
         <v>41107</v>
       </c>
@@ -2570,7 +2571,7 @@
       <c r="J72" s="24"/>
     </row>
     <row r="73" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="89"/>
+      <c r="A73" s="97"/>
       <c r="B73" s="64">
         <v>41108</v>
       </c>
@@ -2594,7 +2595,7 @@
       <c r="J73" s="54"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="89"/>
+      <c r="A74" s="97"/>
       <c r="B74" s="64">
         <v>41109</v>
       </c>
@@ -2614,11 +2615,11 @@
         <v>52</v>
       </c>
       <c r="H74" s="79"/>
-      <c r="I74" s="105"/>
+      <c r="I74" s="85"/>
       <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="89"/>
+      <c r="A75" s="97"/>
       <c r="B75" s="57">
         <v>41110</v>
       </c>
@@ -2638,11 +2639,11 @@
         <v>53</v>
       </c>
       <c r="H75" s="38"/>
-      <c r="I75" s="106"/>
+      <c r="I75" s="86"/>
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="89"/>
+      <c r="A76" s="97"/>
       <c r="B76" s="64">
         <v>41111</v>
       </c>
@@ -2662,11 +2663,11 @@
         <v>54</v>
       </c>
       <c r="H76" s="38"/>
-      <c r="I76" s="106"/>
+      <c r="I76" s="86"/>
       <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="89"/>
+      <c r="A77" s="97"/>
       <c r="B77" s="64">
         <v>41112</v>
       </c>
@@ -2686,11 +2687,11 @@
         <v>55</v>
       </c>
       <c r="H77" s="38"/>
-      <c r="I77" s="106"/>
+      <c r="I77" s="86"/>
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="89"/>
+      <c r="A78" s="97"/>
       <c r="B78" s="57">
         <v>41113</v>
       </c>
@@ -2710,11 +2711,11 @@
         <v>56</v>
       </c>
       <c r="H78" s="38"/>
-      <c r="I78" s="106"/>
+      <c r="I78" s="86"/>
       <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="89"/>
+      <c r="A79" s="97"/>
       <c r="B79" s="57">
         <v>41114</v>
       </c>
@@ -2734,11 +2735,11 @@
         <v>57</v>
       </c>
       <c r="H79" s="38"/>
-      <c r="I79" s="106"/>
+      <c r="I79" s="86"/>
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="89"/>
+      <c r="A80" s="97"/>
       <c r="B80" s="64">
         <v>41115</v>
       </c>
@@ -2762,7 +2763,7 @@
       <c r="J80" s="54"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="89"/>
+      <c r="A81" s="97"/>
       <c r="B81" s="36">
         <v>41116</v>
       </c>
@@ -2786,7 +2787,7 @@
       <c r="J81" s="35"/>
     </row>
     <row r="82" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="89"/>
+      <c r="A82" s="97"/>
       <c r="B82" s="64">
         <v>41117</v>
       </c>
@@ -2810,7 +2811,7 @@
       <c r="J82" s="35"/>
     </row>
     <row r="83" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="89"/>
+      <c r="A83" s="97"/>
       <c r="B83" s="36">
         <v>41118</v>
       </c>
@@ -2834,7 +2835,7 @@
       <c r="J83" s="24"/>
     </row>
     <row r="84" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="89"/>
+      <c r="A84" s="97"/>
       <c r="B84" s="57">
         <v>41119</v>
       </c>
@@ -2858,7 +2859,7 @@
       <c r="J84" s="24"/>
     </row>
     <row r="85" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="90"/>
+      <c r="A85" s="98"/>
       <c r="B85" s="36">
         <v>41119</v>
       </c>
@@ -2882,7 +2883,7 @@
       <c r="J85" s="24"/>
     </row>
     <row r="86" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="85">
+      <c r="A86" s="82">
         <v>11</v>
       </c>
       <c r="B86" s="31">
@@ -2908,7 +2909,7 @@
       <c r="J86" s="24"/>
     </row>
     <row r="87" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="86"/>
+      <c r="A87" s="83"/>
       <c r="B87" s="31">
         <v>41120</v>
       </c>
@@ -2932,7 +2933,7 @@
       <c r="J87" s="24"/>
     </row>
     <row r="88" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="86"/>
+      <c r="A88" s="83"/>
       <c r="B88" s="40">
         <v>41121</v>
       </c>
@@ -2956,43 +2957,43 @@
       <c r="J88" s="35"/>
     </row>
     <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="86"/>
-      <c r="B89" s="97">
+      <c r="A89" s="83"/>
+      <c r="B89" s="102">
         <v>41121</v>
       </c>
-      <c r="C89" s="99">
+      <c r="C89" s="104">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D89" s="99">
+      <c r="D89" s="104">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E89" s="105">
-        <v>0</v>
-      </c>
-      <c r="F89" s="105">
+      <c r="E89" s="85">
+        <v>0</v>
+      </c>
+      <c r="F89" s="85">
         <v>7.5</v>
       </c>
-      <c r="G89" s="105" t="s">
+      <c r="G89" s="85" t="s">
         <v>67</v>
       </c>
       <c r="H89" s="25"/>
-      <c r="I89" s="105"/>
-      <c r="J89" s="105"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
     </row>
     <row r="90" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="86"/>
-      <c r="B90" s="98"/>
-      <c r="C90" s="100"/>
-      <c r="D90" s="100"/>
-      <c r="E90" s="107"/>
-      <c r="F90" s="107"/>
-      <c r="G90" s="107"/>
+      <c r="A90" s="83"/>
+      <c r="B90" s="103"/>
+      <c r="C90" s="105"/>
+      <c r="D90" s="105"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="87"/>
+      <c r="G90" s="87"/>
       <c r="H90" s="24"/>
-      <c r="I90" s="107"/>
-      <c r="J90" s="107"/>
+      <c r="I90" s="87"/>
+      <c r="J90" s="87"/>
     </row>
     <row r="91" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="86"/>
+      <c r="A91" s="83"/>
       <c r="B91" s="63">
         <v>41121</v>
       </c>
@@ -3016,7 +3017,7 @@
       <c r="J91" s="60"/>
     </row>
     <row r="92" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="86"/>
+      <c r="A92" s="83"/>
       <c r="B92" s="63">
         <v>41122</v>
       </c>
@@ -3040,7 +3041,7 @@
       <c r="J92" s="60"/>
     </row>
     <row r="93" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="86"/>
+      <c r="A93" s="83"/>
       <c r="B93" s="43">
         <v>41123</v>
       </c>
@@ -3064,7 +3065,7 @@
       <c r="J93" s="54"/>
     </row>
     <row r="94" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="86"/>
+      <c r="A94" s="83"/>
       <c r="B94" s="31">
         <v>41123</v>
       </c>
@@ -3088,7 +3089,7 @@
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="86"/>
+      <c r="A95" s="83"/>
       <c r="B95" s="52">
         <v>41124</v>
       </c>
@@ -3112,7 +3113,7 @@
       <c r="J95" s="35"/>
     </row>
     <row r="96" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="86"/>
+      <c r="A96" s="83"/>
       <c r="B96" s="40">
         <v>41124</v>
       </c>
@@ -3136,7 +3137,7 @@
       <c r="J96" s="24"/>
     </row>
     <row r="97" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="86"/>
+      <c r="A97" s="83"/>
       <c r="B97" s="31">
         <v>41125</v>
       </c>
@@ -3160,7 +3161,7 @@
       <c r="J97" s="24"/>
     </row>
     <row r="98" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="87"/>
+      <c r="A98" s="84"/>
       <c r="B98" s="31">
         <v>41126</v>
       </c>
@@ -3394,16 +3395,16 @@
       <c r="B108" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C108" s="111" t="s">
+      <c r="C108" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="112"/>
-      <c r="E108" s="112"/>
-      <c r="F108" s="112"/>
-      <c r="G108" s="112"/>
-      <c r="H108" s="112"/>
-      <c r="I108" s="112"/>
-      <c r="J108" s="113"/>
+      <c r="D108" s="100"/>
+      <c r="E108" s="100"/>
+      <c r="F108" s="100"/>
+      <c r="G108" s="100"/>
+      <c r="H108" s="100"/>
+      <c r="I108" s="100"/>
+      <c r="J108" s="101"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E109" s="26" t="s">
@@ -3425,29 +3426,59 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="A86:A98"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="I74:I79"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A53:A64"/>
-    <mergeCell ref="A71:A85"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
     <mergeCell ref="C108:J108"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:C90"/>
@@ -3472,60 +3503,30 @@
     <mergeCell ref="B36:B39"/>
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="C45:C49"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A86:A98"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="I74:I79"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A53:A64"/>
+    <mergeCell ref="A71:A85"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="E50:E51"/>
     <mergeCell ref="A66:A70"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3804,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/SEP/Time Log & Planned Weekly/Timelog_HuyHuynh_SEP.xlsx
+++ b/trunk/SEP/Time Log & Planned Weekly/Timelog_HuyHuynh_SEP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
     <t>Time Recording Log For:    POS Project</t>
   </si>
@@ -262,9 +262,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>15/8/2012</t>
   </si>
   <si>
     <t>AVG (hours/week)</t>
@@ -600,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,18 +742,141 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,150 +886,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,15 +920,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1243,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M110"/>
+  <dimension ref="A2:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,7 +1335,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="96">
+      <c r="A7" s="84">
         <v>1</v>
       </c>
       <c r="B7" s="31">
@@ -1373,8 +1367,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
+    <row r="8" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="85"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="34"/>
@@ -1392,8 +1386,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
+    <row r="9" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="85"/>
       <c r="B9" s="36"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -1405,8 +1399,8 @@
       <c r="J9" s="35"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="97"/>
+    <row r="10" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="85"/>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -1419,29 +1413,29 @@
       <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
       <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
       <c r="L12" s="26" t="s">
         <v>21</v>
       </c>
@@ -1451,7 +1445,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="96">
+      <c r="A13" s="84">
         <v>2</v>
       </c>
       <c r="B13" s="31">
@@ -1484,7 +1478,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="31">
         <v>41051</v>
       </c>
@@ -1508,29 +1502,29 @@
       <c r="J14" s="25"/>
       <c r="M14" s="30"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="97"/>
-      <c r="B15" s="88">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="85"/>
+      <c r="B15" s="87">
         <v>41052</v>
       </c>
-      <c r="C15" s="90">
+      <c r="C15" s="89">
         <v>0.875</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="89">
         <v>0.9375</v>
       </c>
-      <c r="E15" s="92">
-        <v>0</v>
-      </c>
-      <c r="F15" s="92">
+      <c r="E15" s="91">
+        <v>0</v>
+      </c>
+      <c r="F15" s="91">
         <v>1.5</v>
       </c>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="91" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="38"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
       <c r="L15" s="26" t="s">
         <v>26</v>
       </c>
@@ -1539,17 +1533,17 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="97"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="85"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
       <c r="L16" s="26" t="s">
         <v>27</v>
       </c>
@@ -1558,8 +1552,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
+    <row r="17" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="86"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -1571,45 +1565,45 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82">
+      <c r="A18" s="81">
         <v>3</v>
       </c>
-      <c r="B18" s="102">
+      <c r="B18" s="93">
         <v>41057</v>
       </c>
-      <c r="C18" s="104">
+      <c r="C18" s="95">
         <v>0.375</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="95">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E18" s="85">
-        <v>0</v>
-      </c>
-      <c r="F18" s="85">
+      <c r="E18" s="101">
+        <v>0</v>
+      </c>
+      <c r="F18" s="101">
         <v>2</v>
       </c>
-      <c r="G18" s="85" t="s">
+      <c r="G18" s="101" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="25"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="43">
         <v>41058</v>
       </c>
@@ -1633,151 +1627,151 @@
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="43">
         <v>41059</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="58">
         <v>0.375</v>
       </c>
       <c r="D21" s="47">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E21" s="60">
-        <v>0</v>
-      </c>
-      <c r="F21" s="60">
+      <c r="E21" s="59">
+        <v>0</v>
+      </c>
+      <c r="F21" s="59">
         <v>2</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="43">
         <v>41059</v>
       </c>
-      <c r="C22" s="59">
+      <c r="C22" s="58">
         <v>0.79166666666666663</v>
       </c>
       <c r="D22" s="47">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E22" s="60">
-        <v>0</v>
-      </c>
-      <c r="F22" s="60">
+      <c r="E22" s="59">
+        <v>0</v>
+      </c>
+      <c r="F22" s="59">
         <v>1.5</v>
       </c>
-      <c r="G22" s="60" t="s">
+      <c r="G22" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="107">
+      <c r="A23" s="82"/>
+      <c r="B23" s="100">
         <v>41060</v>
       </c>
-      <c r="C23" s="104">
+      <c r="C23" s="95">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="95">
         <v>0.875</v>
       </c>
-      <c r="E23" s="85">
-        <v>0</v>
-      </c>
-      <c r="F23" s="85">
+      <c r="E23" s="101">
+        <v>0</v>
+      </c>
+      <c r="F23" s="101">
         <v>2</v>
       </c>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="86"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="83"/>
-      <c r="B24" s="107"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="106"/>
       <c r="D24" s="106"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="83"/>
-      <c r="B25" s="107"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="106"/>
       <c r="D25" s="106"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="86"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="102"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="102">
+      <c r="A27" s="82"/>
+      <c r="B27" s="93">
         <v>41061</v>
       </c>
-      <c r="C27" s="104">
+      <c r="C27" s="95">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="95">
         <v>0.875</v>
       </c>
-      <c r="E27" s="85">
-        <v>0</v>
-      </c>
-      <c r="F27" s="85">
+      <c r="E27" s="101">
+        <v>0</v>
+      </c>
+      <c r="F27" s="101">
         <v>1</v>
       </c>
-      <c r="G27" s="85" t="s">
+      <c r="G27" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="83"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="103"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="83"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -1789,153 +1783,153 @@
       <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="114"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
-      <c r="I30" s="85"/>
+      <c r="I30" s="101"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="115"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="86"/>
+      <c r="I31" s="102"/>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="84"/>
-      <c r="B32" s="116"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="50"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
-      <c r="I32" s="87"/>
+      <c r="I32" s="103"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="82">
+      <c r="A33" s="81">
         <v>4</v>
       </c>
-      <c r="B33" s="102">
+      <c r="B33" s="93">
         <v>41065</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="95">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D33" s="104">
+      <c r="D33" s="95">
         <v>0.875</v>
       </c>
-      <c r="E33" s="85">
-        <v>0</v>
-      </c>
-      <c r="F33" s="85">
+      <c r="E33" s="101">
+        <v>0</v>
+      </c>
+      <c r="F33" s="101">
         <v>1</v>
       </c>
-      <c r="G33" s="85" t="s">
+      <c r="G33" s="101" t="s">
         <v>29</v>
       </c>
       <c r="H33" s="25"/>
-      <c r="I33" s="85"/>
+      <c r="I33" s="101"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="107"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="106"/>
       <c r="D34" s="106"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="86"/>
+      <c r="I34" s="102"/>
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="83"/>
-      <c r="B35" s="103"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="87"/>
+      <c r="I35" s="103"/>
       <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="102">
+      <c r="A36" s="82"/>
+      <c r="B36" s="93">
         <v>41066</v>
       </c>
-      <c r="C36" s="104">
+      <c r="C36" s="95">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D36" s="104">
+      <c r="D36" s="95">
         <v>0.875</v>
       </c>
-      <c r="E36" s="85">
-        <v>0</v>
-      </c>
-      <c r="F36" s="85">
+      <c r="E36" s="101">
+        <v>0</v>
+      </c>
+      <c r="F36" s="101">
         <v>1</v>
       </c>
-      <c r="G36" s="85" t="s">
+      <c r="G36" s="101" t="s">
         <v>42</v>
       </c>
       <c r="H36" s="25"/>
-      <c r="I36" s="85"/>
+      <c r="I36" s="101"/>
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="83"/>
-      <c r="B37" s="107"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="106"/>
       <c r="D37" s="106"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
       <c r="H37" s="25"/>
-      <c r="I37" s="86"/>
+      <c r="I37" s="102"/>
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="83"/>
-      <c r="B38" s="107"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="106"/>
       <c r="D38" s="106"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="86"/>
+      <c r="I38" s="102"/>
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="83"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="87"/>
+      <c r="I39" s="103"/>
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="84"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="31">
         <v>41067</v>
       </c>
@@ -2006,253 +2000,253 @@
       <c r="I44" s="35"/>
       <c r="J44" s="35"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="96">
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="84">
         <v>5</v>
       </c>
-      <c r="B45" s="88">
+      <c r="B45" s="87">
         <v>41075</v>
       </c>
-      <c r="C45" s="90">
+      <c r="C45" s="89">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D45" s="90">
+      <c r="D45" s="89">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E45" s="92">
-        <v>0</v>
-      </c>
-      <c r="F45" s="92">
+      <c r="E45" s="91">
+        <v>0</v>
+      </c>
+      <c r="F45" s="91">
         <v>3</v>
       </c>
-      <c r="G45" s="92" t="s">
+      <c r="G45" s="91" t="s">
         <v>43</v>
       </c>
       <c r="H45" s="38"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="97"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
+      <c r="I46" s="102"/>
+      <c r="J46" s="102"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="97"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="102"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="97"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="97"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
-      <c r="G49" s="93"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="85"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="33"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="97"/>
-      <c r="B50" s="88">
+      <c r="I49" s="103"/>
+      <c r="J49" s="103"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="85"/>
+      <c r="B50" s="87">
         <v>41076</v>
       </c>
-      <c r="C50" s="90">
+      <c r="C50" s="89">
         <v>0.375</v>
       </c>
-      <c r="D50" s="90">
+      <c r="D50" s="89">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E50" s="92">
-        <v>0</v>
-      </c>
-      <c r="F50" s="92">
+      <c r="E50" s="91">
+        <v>0</v>
+      </c>
+      <c r="F50" s="91">
         <v>2.5</v>
       </c>
-      <c r="G50" s="92" t="s">
+      <c r="G50" s="91" t="s">
         <v>41</v>
       </c>
       <c r="H50" s="38"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="97"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="85"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
     </row>
     <row r="52" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="98"/>
-      <c r="B52" s="64">
+      <c r="A52" s="86"/>
+      <c r="B52" s="63">
         <v>41076</v>
       </c>
-      <c r="C52" s="65">
+      <c r="C52" s="64">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D52" s="65">
+      <c r="D52" s="64">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E52" s="66">
-        <v>0</v>
-      </c>
-      <c r="F52" s="66">
+      <c r="E52" s="65">
+        <v>0</v>
+      </c>
+      <c r="F52" s="65">
         <v>4</v>
       </c>
-      <c r="G52" s="66" t="s">
+      <c r="G52" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="H52" s="66"/>
+      <c r="H52" s="65"/>
       <c r="I52" s="54"/>
       <c r="J52" s="54"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="96">
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="84">
         <v>6</v>
       </c>
-      <c r="B53" s="88">
+      <c r="B53" s="87">
         <v>41077</v>
       </c>
-      <c r="C53" s="90">
+      <c r="C53" s="89">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D53" s="90">
+      <c r="D53" s="89">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E53" s="92">
-        <v>0</v>
-      </c>
-      <c r="F53" s="92">
+      <c r="E53" s="91">
+        <v>0</v>
+      </c>
+      <c r="F53" s="91">
         <v>4</v>
       </c>
-      <c r="G53" s="92" t="s">
+      <c r="G53" s="91" t="s">
         <v>45</v>
       </c>
       <c r="H53" s="38"/>
-      <c r="I53" s="85"/>
+      <c r="I53" s="101"/>
       <c r="J53" s="25"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="97"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95"/>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="85"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="86"/>
+      <c r="I54" s="102"/>
       <c r="J54" s="25"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="97"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="85"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="86"/>
+      <c r="I55" s="102"/>
       <c r="J55" s="25"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="97"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="95"/>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="85"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="86"/>
+      <c r="I56" s="102"/>
       <c r="J56" s="25"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="97"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="85"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
       <c r="H57" s="38"/>
-      <c r="I57" s="86"/>
+      <c r="I57" s="102"/>
       <c r="J57" s="25"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="97"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="93"/>
-      <c r="G58" s="93"/>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="85"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
       <c r="H58" s="38"/>
-      <c r="I58" s="86"/>
+      <c r="I58" s="102"/>
       <c r="J58" s="25"/>
     </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="97"/>
-      <c r="B59" s="64">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="85"/>
+      <c r="B59" s="63">
         <v>41078</v>
       </c>
-      <c r="C59" s="65">
+      <c r="C59" s="64">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D59" s="65">
+      <c r="D59" s="64">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E59" s="66">
-        <v>0</v>
-      </c>
-      <c r="F59" s="66">
+      <c r="E59" s="65">
+        <v>0</v>
+      </c>
+      <c r="F59" s="65">
         <v>2.5</v>
       </c>
-      <c r="G59" s="66" t="s">
+      <c r="G59" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="H59" s="66"/>
+      <c r="H59" s="65"/>
       <c r="I59" s="54"/>
       <c r="J59" s="54"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="97"/>
-      <c r="B60" s="64">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="85"/>
+      <c r="B60" s="63">
         <v>41078</v>
       </c>
       <c r="C60" s="34">
@@ -2275,8 +2269,8 @@
       <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="97"/>
-      <c r="B61" s="64">
+      <c r="A61" s="85"/>
+      <c r="B61" s="63">
         <v>41079</v>
       </c>
       <c r="C61" s="34">
@@ -2300,9 +2294,9 @@
       <c r="I61" s="35"/>
       <c r="J61" s="35"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="97"/>
-      <c r="B62" s="64">
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="85"/>
+      <c r="B62" s="63">
         <v>41079</v>
       </c>
       <c r="C62" s="34">
@@ -2324,9 +2318,9 @@
       <c r="I62" s="35"/>
       <c r="J62" s="35"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="97"/>
-      <c r="B63" s="64">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="85"/>
+      <c r="B63" s="63">
         <v>41080</v>
       </c>
       <c r="C63" s="34">
@@ -2349,20 +2343,20 @@
       <c r="J63" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="98"/>
-      <c r="B64" s="64">
+      <c r="A64" s="86"/>
+      <c r="B64" s="63">
         <v>40352</v>
       </c>
-      <c r="C64" s="67">
+      <c r="C64" s="66">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D64" s="67">
+      <c r="D64" s="66">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E64" s="68">
-        <v>0</v>
-      </c>
-      <c r="F64" s="68">
+      <c r="E64" s="67">
+        <v>0</v>
+      </c>
+      <c r="F64" s="67">
         <v>4</v>
       </c>
       <c r="G64" s="39" t="s">
@@ -2373,25 +2367,25 @@
       <c r="J64" s="55"/>
     </row>
     <row r="65" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="69">
+      <c r="A65" s="68">
         <v>7</v>
       </c>
-      <c r="B65" s="64">
+      <c r="B65" s="63">
         <v>41086</v>
       </c>
-      <c r="C65" s="70">
+      <c r="C65" s="69">
         <v>0.125</v>
       </c>
-      <c r="D65" s="70">
+      <c r="D65" s="69">
         <v>0.14583333333333334</v>
       </c>
-      <c r="E65" s="68">
-        <v>0</v>
-      </c>
-      <c r="F65" s="66">
+      <c r="E65" s="67">
+        <v>0</v>
+      </c>
+      <c r="F65" s="65">
         <v>0.5</v>
       </c>
-      <c r="G65" s="71" t="s">
+      <c r="G65" s="70" t="s">
         <v>22</v>
       </c>
       <c r="H65" s="39"/>
@@ -2399,25 +2393,25 @@
       <c r="J65" s="55"/>
     </row>
     <row r="66" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="111">
+      <c r="A66" s="113">
         <v>9</v>
       </c>
-      <c r="B66" s="64">
+      <c r="B66" s="63">
         <v>41101</v>
       </c>
-      <c r="C66" s="72">
+      <c r="C66" s="71">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D66" s="73">
+      <c r="D66" s="72">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E66" s="68">
-        <v>0</v>
-      </c>
-      <c r="F66" s="68">
+      <c r="E66" s="67">
+        <v>0</v>
+      </c>
+      <c r="F66" s="67">
         <v>4</v>
       </c>
-      <c r="G66" s="71" t="s">
+      <c r="G66" s="70" t="s">
         <v>42</v>
       </c>
       <c r="H66" s="39"/>
@@ -2425,14 +2419,14 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="112"/>
-      <c r="B67" s="64">
+      <c r="A67" s="114"/>
+      <c r="B67" s="63">
         <v>41102</v>
       </c>
-      <c r="C67" s="72">
+      <c r="C67" s="71">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D67" s="73">
+      <c r="D67" s="72">
         <v>0.95833333333333337</v>
       </c>
       <c r="E67" s="39">
@@ -2441,7 +2435,7 @@
       <c r="F67" s="39">
         <v>4</v>
       </c>
-      <c r="G67" s="71" t="s">
+      <c r="G67" s="70" t="s">
         <v>42</v>
       </c>
       <c r="H67" s="33"/>
@@ -2449,23 +2443,23 @@
       <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="112"/>
-      <c r="B68" s="64">
+      <c r="A68" s="114"/>
+      <c r="B68" s="63">
         <v>41103</v>
       </c>
-      <c r="C68" s="72">
+      <c r="C68" s="71">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D68" s="73">
+      <c r="D68" s="72">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E68" s="68">
-        <v>0</v>
-      </c>
-      <c r="F68" s="68">
+      <c r="E68" s="67">
+        <v>0</v>
+      </c>
+      <c r="F68" s="67">
         <v>4</v>
       </c>
-      <c r="G68" s="74" t="s">
+      <c r="G68" s="73" t="s">
         <v>42</v>
       </c>
       <c r="H68" s="39"/>
@@ -2473,14 +2467,14 @@
       <c r="J68" s="54"/>
     </row>
     <row r="69" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="112"/>
-      <c r="B69" s="57">
+      <c r="A69" s="114"/>
+      <c r="B69" s="56">
         <v>41104</v>
       </c>
-      <c r="C69" s="75">
+      <c r="C69" s="74">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D69" s="76">
+      <c r="D69" s="75">
         <v>0.95833333333333337</v>
       </c>
       <c r="E69" s="39">
@@ -2489,7 +2483,7 @@
       <c r="F69" s="39">
         <v>4</v>
       </c>
-      <c r="G69" s="77" t="s">
+      <c r="G69" s="76" t="s">
         <v>42</v>
       </c>
       <c r="H69" s="39"/>
@@ -2497,23 +2491,23 @@
       <c r="J69" s="54"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="113"/>
-      <c r="B70" s="64">
+      <c r="A70" s="115"/>
+      <c r="B70" s="63">
         <v>41105</v>
       </c>
-      <c r="C70" s="67">
+      <c r="C70" s="66">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D70" s="78">
+      <c r="D70" s="77">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E70" s="68">
-        <v>0</v>
-      </c>
-      <c r="F70" s="68">
+      <c r="E70" s="67">
+        <v>0</v>
+      </c>
+      <c r="F70" s="67">
         <v>4</v>
       </c>
-      <c r="G70" s="66" t="s">
+      <c r="G70" s="65" t="s">
         <v>46</v>
       </c>
       <c r="H70" s="39"/>
@@ -2521,16 +2515,16 @@
       <c r="J70" s="54"/>
     </row>
     <row r="71" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="96">
+      <c r="A71" s="84">
         <v>10</v>
       </c>
-      <c r="B71" s="64">
+      <c r="B71" s="63">
         <v>41106</v>
       </c>
-      <c r="C71" s="67">
+      <c r="C71" s="66">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D71" s="78">
+      <c r="D71" s="77">
         <v>0.95833333333333337</v>
       </c>
       <c r="E71" s="39">
@@ -2539,7 +2533,7 @@
       <c r="F71" s="39">
         <v>4</v>
       </c>
-      <c r="G71" s="71" t="s">
+      <c r="G71" s="70" t="s">
         <v>51</v>
       </c>
       <c r="H71" s="39"/>
@@ -2547,38 +2541,38 @@
       <c r="J71" s="54"/>
     </row>
     <row r="72" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="97"/>
-      <c r="B72" s="57">
+      <c r="A72" s="85"/>
+      <c r="B72" s="56">
         <v>41107</v>
       </c>
-      <c r="C72" s="75">
+      <c r="C72" s="74">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D72" s="78">
+      <c r="D72" s="77">
         <v>0.95833333333333304</v>
       </c>
-      <c r="E72" s="68">
-        <v>0</v>
-      </c>
-      <c r="F72" s="68">
+      <c r="E72" s="67">
+        <v>0</v>
+      </c>
+      <c r="F72" s="67">
         <v>4</v>
       </c>
-      <c r="G72" s="66" t="s">
+      <c r="G72" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="H72" s="58"/>
-      <c r="I72" s="62"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="61"/>
       <c r="J72" s="24"/>
     </row>
     <row r="73" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="97"/>
-      <c r="B73" s="64">
+      <c r="A73" s="85"/>
+      <c r="B73" s="63">
         <v>41108</v>
       </c>
-      <c r="C73" s="67">
+      <c r="C73" s="66">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D73" s="78">
+      <c r="D73" s="77">
         <v>0.95833333333333304</v>
       </c>
       <c r="E73" s="39">
@@ -2587,7 +2581,7 @@
       <c r="F73" s="39">
         <v>4</v>
       </c>
-      <c r="G73" s="71" t="s">
+      <c r="G73" s="70" t="s">
         <v>47</v>
       </c>
       <c r="H73" s="39"/>
@@ -2595,38 +2589,38 @@
       <c r="J73" s="54"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="97"/>
-      <c r="B74" s="64">
+      <c r="A74" s="85"/>
+      <c r="B74" s="63">
         <v>41109</v>
       </c>
-      <c r="C74" s="67">
+      <c r="C74" s="66">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D74" s="78">
+      <c r="D74" s="77">
         <v>0.95833333333333304</v>
       </c>
-      <c r="E74" s="68">
-        <v>0</v>
-      </c>
-      <c r="F74" s="68">
+      <c r="E74" s="67">
+        <v>0</v>
+      </c>
+      <c r="F74" s="67">
         <v>4</v>
       </c>
-      <c r="G74" s="66" t="s">
+      <c r="G74" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="H74" s="79"/>
-      <c r="I74" s="85"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="101"/>
       <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="97"/>
-      <c r="B75" s="57">
+      <c r="A75" s="85"/>
+      <c r="B75" s="56">
         <v>41110</v>
       </c>
-      <c r="C75" s="75">
+      <c r="C75" s="74">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D75" s="78">
+      <c r="D75" s="77">
         <v>0.95833333333333304</v>
       </c>
       <c r="E75" s="39">
@@ -2635,46 +2629,46 @@
       <c r="F75" s="39">
         <v>4</v>
       </c>
-      <c r="G75" s="71" t="s">
+      <c r="G75" s="70" t="s">
         <v>53</v>
       </c>
       <c r="H75" s="38"/>
-      <c r="I75" s="86"/>
+      <c r="I75" s="102"/>
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="97"/>
-      <c r="B76" s="64">
+      <c r="A76" s="85"/>
+      <c r="B76" s="63">
         <v>41111</v>
       </c>
-      <c r="C76" s="67">
+      <c r="C76" s="66">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D76" s="78">
+      <c r="D76" s="77">
         <v>0.95833333333333304</v>
       </c>
-      <c r="E76" s="68">
-        <v>0</v>
-      </c>
-      <c r="F76" s="68">
+      <c r="E76" s="67">
+        <v>0</v>
+      </c>
+      <c r="F76" s="67">
         <v>4</v>
       </c>
-      <c r="G76" s="66" t="s">
+      <c r="G76" s="65" t="s">
         <v>54</v>
       </c>
       <c r="H76" s="38"/>
-      <c r="I76" s="86"/>
+      <c r="I76" s="102"/>
       <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="97"/>
-      <c r="B77" s="64">
+      <c r="A77" s="86"/>
+      <c r="B77" s="63">
         <v>41112</v>
       </c>
-      <c r="C77" s="67">
+      <c r="C77" s="66">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D77" s="78">
+      <c r="D77" s="77">
         <v>0.95833333333333304</v>
       </c>
       <c r="E77" s="39">
@@ -2683,43 +2677,45 @@
       <c r="F77" s="39">
         <v>4</v>
       </c>
-      <c r="G77" s="71" t="s">
+      <c r="G77" s="70" t="s">
         <v>55</v>
       </c>
       <c r="H77" s="38"/>
-      <c r="I77" s="86"/>
+      <c r="I77" s="102"/>
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="97"/>
-      <c r="B78" s="57">
+      <c r="A78" s="84">
+        <v>11</v>
+      </c>
+      <c r="B78" s="56">
         <v>41113</v>
       </c>
-      <c r="C78" s="75">
+      <c r="C78" s="74">
         <v>0.79166666666666696</v>
       </c>
-      <c r="D78" s="78">
+      <c r="D78" s="77">
         <v>0.95833333333333304</v>
       </c>
-      <c r="E78" s="68">
-        <v>0</v>
-      </c>
-      <c r="F78" s="68">
+      <c r="E78" s="67">
+        <v>0</v>
+      </c>
+      <c r="F78" s="67">
         <v>4</v>
       </c>
-      <c r="G78" s="66" t="s">
+      <c r="G78" s="65" t="s">
         <v>56</v>
       </c>
       <c r="H78" s="38"/>
-      <c r="I78" s="86"/>
+      <c r="I78" s="102"/>
       <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="97"/>
-      <c r="B79" s="57">
+      <c r="A79" s="85"/>
+      <c r="B79" s="56">
         <v>41114</v>
       </c>
-      <c r="C79" s="80">
+      <c r="C79" s="79">
         <v>0.79166666666666663</v>
       </c>
       <c r="D79" s="37">
@@ -2735,35 +2731,35 @@
         <v>57</v>
       </c>
       <c r="H79" s="38"/>
-      <c r="I79" s="86"/>
+      <c r="I79" s="102"/>
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="97"/>
-      <c r="B80" s="64">
+      <c r="A80" s="85"/>
+      <c r="B80" s="63">
         <v>41115</v>
       </c>
-      <c r="C80" s="75">
+      <c r="C80" s="74">
         <v>0.79166666666666596</v>
       </c>
-      <c r="D80" s="78">
+      <c r="D80" s="77">
         <v>0.95833333333333404</v>
       </c>
-      <c r="E80" s="68">
-        <v>0</v>
-      </c>
-      <c r="F80" s="68">
+      <c r="E80" s="67">
+        <v>0</v>
+      </c>
+      <c r="F80" s="67">
         <v>4</v>
       </c>
-      <c r="G80" s="66" t="s">
+      <c r="G80" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="H80" s="66"/>
+      <c r="H80" s="65"/>
       <c r="I80" s="54"/>
       <c r="J80" s="54"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="97"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="36">
         <v>41116</v>
       </c>
@@ -2787,8 +2783,8 @@
       <c r="J81" s="35"/>
     </row>
     <row r="82" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="97"/>
-      <c r="B82" s="64">
+      <c r="A82" s="85"/>
+      <c r="B82" s="63">
         <v>41117</v>
       </c>
       <c r="C82" s="34">
@@ -2811,7 +2807,7 @@
       <c r="J82" s="35"/>
     </row>
     <row r="83" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="97"/>
+      <c r="A83" s="85"/>
       <c r="B83" s="36">
         <v>41118</v>
       </c>
@@ -2835,8 +2831,8 @@
       <c r="J83" s="24"/>
     </row>
     <row r="84" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="97"/>
-      <c r="B84" s="57">
+      <c r="A84" s="85"/>
+      <c r="B84" s="56">
         <v>41119</v>
       </c>
       <c r="C84" s="34">
@@ -2855,11 +2851,11 @@
         <v>66</v>
       </c>
       <c r="H84" s="33"/>
-      <c r="I84" s="81"/>
+      <c r="I84" s="80"/>
       <c r="J84" s="24"/>
     </row>
     <row r="85" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="98"/>
+      <c r="A85" s="86"/>
       <c r="B85" s="36">
         <v>41119</v>
       </c>
@@ -2883,8 +2879,8 @@
       <c r="J85" s="24"/>
     </row>
     <row r="86" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="82">
-        <v>11</v>
+      <c r="A86" s="81">
+        <v>12</v>
       </c>
       <c r="B86" s="31">
         <v>41120</v>
@@ -2909,7 +2905,7 @@
       <c r="J86" s="24"/>
     </row>
     <row r="87" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="83"/>
+      <c r="A87" s="82"/>
       <c r="B87" s="31">
         <v>41120</v>
       </c>
@@ -2933,7 +2929,7 @@
       <c r="J87" s="24"/>
     </row>
     <row r="88" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="83"/>
+      <c r="A88" s="82"/>
       <c r="B88" s="40">
         <v>41121</v>
       </c>
@@ -2957,91 +2953,91 @@
       <c r="J88" s="35"/>
     </row>
     <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="83"/>
-      <c r="B89" s="102">
+      <c r="A89" s="82"/>
+      <c r="B89" s="93">
         <v>41121</v>
       </c>
-      <c r="C89" s="104">
+      <c r="C89" s="95">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D89" s="104">
+      <c r="D89" s="95">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E89" s="85">
-        <v>0</v>
-      </c>
-      <c r="F89" s="85">
+      <c r="E89" s="101">
+        <v>0</v>
+      </c>
+      <c r="F89" s="101">
         <v>7.5</v>
       </c>
-      <c r="G89" s="85" t="s">
+      <c r="G89" s="101" t="s">
         <v>67</v>
       </c>
       <c r="H89" s="25"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
+      <c r="I89" s="101"/>
+      <c r="J89" s="101"/>
     </row>
     <row r="90" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="83"/>
-      <c r="B90" s="103"/>
-      <c r="C90" s="105"/>
-      <c r="D90" s="105"/>
-      <c r="E90" s="87"/>
-      <c r="F90" s="87"/>
-      <c r="G90" s="87"/>
+      <c r="A90" s="82"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="103"/>
+      <c r="F90" s="103"/>
+      <c r="G90" s="103"/>
       <c r="H90" s="24"/>
-      <c r="I90" s="87"/>
-      <c r="J90" s="87"/>
+      <c r="I90" s="103"/>
+      <c r="J90" s="103"/>
     </row>
     <row r="91" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="83"/>
-      <c r="B91" s="63">
+      <c r="A91" s="82"/>
+      <c r="B91" s="62">
         <v>41121</v>
       </c>
-      <c r="C91" s="59">
+      <c r="C91" s="58">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D91" s="59">
+      <c r="D91" s="58">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E91" s="60">
-        <v>0</v>
-      </c>
-      <c r="F91" s="60">
+      <c r="E91" s="59">
+        <v>0</v>
+      </c>
+      <c r="F91" s="59">
         <v>2</v>
       </c>
-      <c r="G91" s="60" t="s">
+      <c r="G91" s="59" t="s">
         <v>71</v>
       </c>
       <c r="H91" s="25"/>
-      <c r="I91" s="60"/>
-      <c r="J91" s="60"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
     </row>
     <row r="92" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="83"/>
-      <c r="B92" s="63">
+      <c r="A92" s="82"/>
+      <c r="B92" s="62">
         <v>41122</v>
       </c>
-      <c r="C92" s="59">
+      <c r="C92" s="58">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D92" s="59">
+      <c r="D92" s="58">
         <v>0.83333333333333337</v>
       </c>
-      <c r="E92" s="60">
-        <v>0</v>
-      </c>
-      <c r="F92" s="60">
+      <c r="E92" s="59">
+        <v>0</v>
+      </c>
+      <c r="F92" s="59">
         <v>7</v>
       </c>
-      <c r="G92" s="60" t="s">
+      <c r="G92" s="59" t="s">
         <v>68</v>
       </c>
       <c r="H92" s="46"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="60"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
     </row>
     <row r="93" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="83"/>
+      <c r="A93" s="82"/>
       <c r="B93" s="43">
         <v>41123</v>
       </c>
@@ -3065,7 +3061,7 @@
       <c r="J93" s="54"/>
     </row>
     <row r="94" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="83"/>
+      <c r="A94" s="82"/>
       <c r="B94" s="31">
         <v>41123</v>
       </c>
@@ -3089,7 +3085,7 @@
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="83"/>
+      <c r="A95" s="82"/>
       <c r="B95" s="52">
         <v>41124</v>
       </c>
@@ -3113,7 +3109,7 @@
       <c r="J95" s="35"/>
     </row>
     <row r="96" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="83"/>
+      <c r="A96" s="82"/>
       <c r="B96" s="40">
         <v>41124</v>
       </c>
@@ -3137,7 +3133,7 @@
       <c r="J96" s="24"/>
     </row>
     <row r="97" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="83"/>
+      <c r="A97" s="82"/>
       <c r="B97" s="31">
         <v>41125</v>
       </c>
@@ -3161,7 +3157,7 @@
       <c r="J97" s="24"/>
     </row>
     <row r="98" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="84"/>
+      <c r="A98" s="83"/>
       <c r="B98" s="31">
         <v>41126</v>
       </c>
@@ -3184,9 +3180,9 @@
       <c r="I98" s="24"/>
       <c r="J98" s="24"/>
     </row>
-    <row r="99" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="56">
-        <v>12</v>
+    <row r="99" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="81">
+        <v>13</v>
       </c>
       <c r="B99" s="31">
         <v>41127</v>
@@ -3211,7 +3207,7 @@
       <c r="J99" s="24"/>
     </row>
     <row r="100" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="51"/>
+      <c r="A100" s="82"/>
       <c r="B100" s="31">
         <v>41127</v>
       </c>
@@ -3235,7 +3231,7 @@
       <c r="J100" s="24"/>
     </row>
     <row r="101" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="51"/>
+      <c r="A101" s="82"/>
       <c r="B101" s="31">
         <v>41127</v>
       </c>
@@ -3259,7 +3255,7 @@
       <c r="J101" s="24"/>
     </row>
     <row r="102" spans="1:10" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="51"/>
+      <c r="A102" s="82"/>
       <c r="B102" s="31">
         <v>41128</v>
       </c>
@@ -3283,7 +3279,7 @@
       <c r="J102" s="24"/>
     </row>
     <row r="103" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="51"/>
+      <c r="A103" s="82"/>
       <c r="B103" s="31">
         <v>41128</v>
       </c>
@@ -3307,7 +3303,7 @@
       <c r="J103" s="24"/>
     </row>
     <row r="104" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="51"/>
+      <c r="A104" s="82"/>
       <c r="B104" s="31" t="s">
         <v>81</v>
       </c>
@@ -3331,7 +3327,7 @@
       <c r="J104" s="24"/>
     </row>
     <row r="105" spans="1:10" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="51"/>
+      <c r="A105" s="82"/>
       <c r="B105" s="31">
         <v>41129</v>
       </c>
@@ -3355,7 +3351,7 @@
       <c r="J105" s="24"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="51"/>
+      <c r="A106" s="83"/>
       <c r="B106" s="31">
         <v>41130</v>
       </c>
@@ -3379,82 +3375,91 @@
       <c r="J106" s="24"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="51"/>
-      <c r="B107" s="52"/>
-      <c r="C107" s="24"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="24"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="53"/>
-      <c r="B108" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C108" s="99" t="s">
+      <c r="A107" s="53"/>
+      <c r="B107" s="52">
+        <v>41136</v>
+      </c>
+      <c r="C107" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="100"/>
-      <c r="E108" s="100"/>
-      <c r="F108" s="100"/>
-      <c r="G108" s="100"/>
-      <c r="H108" s="100"/>
-      <c r="I108" s="100"/>
-      <c r="J108" s="101"/>
+      <c r="D107" s="108"/>
+      <c r="E107" s="108"/>
+      <c r="F107" s="108"/>
+      <c r="G107" s="108"/>
+      <c r="H107" s="108"/>
+      <c r="I107" s="108"/>
+      <c r="J107" s="109"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E108" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F108" s="26">
+        <f>SUM(F7:F106)</f>
+        <v>225</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E109" s="26" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="F109" s="26">
-        <f>SUM(F7:F107)</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E110" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="F110" s="26">
-        <f>F109/12</f>
+        <f>F108/12</f>
         <v>18.75</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="101">
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J15:J16"/>
+  <mergeCells count="103">
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="A99:A106"/>
+    <mergeCell ref="A86:A98"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="I74:I79"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A53:A64"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="C107:J107"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="I18:I19"/>
@@ -3479,54 +3484,35 @@
     <mergeCell ref="J27:J28"/>
     <mergeCell ref="G23:G26"/>
     <mergeCell ref="H23:H26"/>
-    <mergeCell ref="C108:J108"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="A86:A98"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="I74:I79"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A53:A64"/>
-    <mergeCell ref="A71:A85"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3548,30 +3534,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="119"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="118"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="120"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3580,17 +3566,17 @@
       <c r="B3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="123"/>
-      <c r="E3" s="124">
+      <c r="D3" s="122"/>
+      <c r="E3" s="123">
         <v>41050</v>
       </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">

--- a/trunk/SEP/Time Log & Planned Weekly/Timelog_HuyHuynh_SEP.xlsx
+++ b/trunk/SEP/Time Log & Planned Weekly/Timelog_HuyHuynh_SEP.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
   <si>
-    <t>Time Recording Log For:    POS Project</t>
-  </si>
-  <si>
     <t>SUMMARY: TIME FOR DOING PROJECT</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>AVG (hours/week)</t>
+  </si>
+  <si>
+    <t>Time Recording Log For:    SEP Project</t>
   </si>
 </sst>
 </file>
@@ -817,6 +817,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,43 +835,82 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -872,54 +920,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1239,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,24 +1263,24 @@
   <sheetData>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="L3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="F4" s="27" t="s">
         <v>3</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>4</v>
       </c>
       <c r="G4" s="28">
         <v>41043</v>
@@ -1289,45 +1289,45 @@
     <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="29"/>
       <c r="L5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="26" t="s">
         <v>16</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>17</v>
       </c>
       <c r="M6" s="30" t="e">
         <f>SUM(F7:F12) +#REF! +#REF!/ 2+F79</f>
@@ -1335,7 +1335,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84">
+      <c r="A7" s="81">
         <v>1</v>
       </c>
       <c r="B7" s="31">
@@ -1354,13 +1354,13 @@
         <v>1.5</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="24"/>
       <c r="J7" s="24"/>
       <c r="L7" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" s="30">
         <f>SUM(F15:F26)</f>
@@ -1368,7 +1368,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="34"/>
@@ -1379,7 +1379,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="L8" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" s="30">
         <f>SUM(F30:F39)+SUM(F60:F69) + SUM(F86:F94)</f>
@@ -1387,7 +1387,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="36"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -1400,7 +1400,7 @@
       <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -1413,31 +1413,31 @@
       <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
       <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
       <c r="L12" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M12" s="30">
         <f>SUM(F40:F59)</f>
@@ -1445,7 +1445,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84">
+      <c r="A13" s="81">
         <v>2</v>
       </c>
       <c r="B13" s="31">
@@ -1464,13 +1464,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="L13" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" s="30" t="e">
         <f xml:space="preserve"> SUM(F40:F59) +#REF! + F85</f>
@@ -1478,7 +1478,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="31">
         <v>41051</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="25"/>
@@ -1503,30 +1503,30 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="87">
+      <c r="A15" s="82"/>
+      <c r="B15" s="90">
         <v>41052</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="92">
         <v>0.875</v>
       </c>
-      <c r="D15" s="89">
+      <c r="D15" s="92">
         <v>0.9375</v>
       </c>
-      <c r="E15" s="91">
-        <v>0</v>
-      </c>
-      <c r="F15" s="91">
+      <c r="E15" s="94">
+        <v>0</v>
+      </c>
+      <c r="F15" s="94">
         <v>1.5</v>
       </c>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="38"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="L15" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
-      <c r="L15" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="M15" s="30" t="e">
         <f>SUM(M6:M13)</f>
@@ -1534,18 +1534,18 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
       <c r="L16" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M16" s="30" t="e">
         <f>M15/8</f>
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -1565,45 +1565,45 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81">
+      <c r="A18" s="84">
         <v>3</v>
       </c>
-      <c r="B18" s="93">
+      <c r="B18" s="104">
         <v>41057</v>
       </c>
-      <c r="C18" s="95">
+      <c r="C18" s="106">
         <v>0.375</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="106">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E18" s="101">
-        <v>0</v>
-      </c>
-      <c r="F18" s="101">
+      <c r="E18" s="87">
+        <v>0</v>
+      </c>
+      <c r="F18" s="87">
         <v>2</v>
       </c>
-      <c r="G18" s="101" t="s">
-        <v>22</v>
+      <c r="G18" s="87" t="s">
+        <v>21</v>
       </c>
       <c r="H18" s="25"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="103"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="43">
         <v>41058</v>
       </c>
@@ -1620,14 +1620,14 @@
         <v>2</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="46"/>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="43">
         <v>41059</v>
       </c>
@@ -1644,14 +1644,14 @@
         <v>2</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="59"/>
       <c r="I21" s="59"/>
       <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="43">
         <v>41059</v>
       </c>
@@ -1668,110 +1668,110 @@
         <v>1.5</v>
       </c>
       <c r="G22" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
       <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="100">
+      <c r="A23" s="85"/>
+      <c r="B23" s="109">
         <v>41060</v>
       </c>
-      <c r="C23" s="95">
+      <c r="C23" s="106">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D23" s="95">
+      <c r="D23" s="106">
         <v>0.875</v>
       </c>
-      <c r="E23" s="101">
-        <v>0</v>
-      </c>
-      <c r="F23" s="101">
+      <c r="E23" s="87">
+        <v>0</v>
+      </c>
+      <c r="F23" s="87">
         <v>2</v>
       </c>
-      <c r="G23" s="101" t="s">
+      <c r="G23" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="85"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="85"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="85"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="88"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="85"/>
+      <c r="B27" s="104">
+        <v>41061</v>
+      </c>
+      <c r="C27" s="106">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D27" s="106">
+        <v>0.875</v>
+      </c>
+      <c r="E27" s="87">
+        <v>0</v>
+      </c>
+      <c r="F27" s="87">
+        <v>1</v>
+      </c>
+      <c r="G27" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="102"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="102"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="93">
-        <v>41061</v>
-      </c>
-      <c r="C27" s="95">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D27" s="95">
-        <v>0.875</v>
-      </c>
-      <c r="E27" s="101">
-        <v>0</v>
-      </c>
-      <c r="F27" s="101">
-        <v>1</v>
-      </c>
-      <c r="G27" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -1783,153 +1783,153 @@
       <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="97"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
-      <c r="I30" s="101"/>
+      <c r="I30" s="87"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="114"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="102"/>
+      <c r="I31" s="88"/>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="99"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="115"/>
       <c r="C32" s="50"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
-      <c r="I32" s="103"/>
+      <c r="I32" s="89"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="81">
+      <c r="A33" s="84">
         <v>4</v>
       </c>
-      <c r="B33" s="93">
+      <c r="B33" s="104">
         <v>41065</v>
       </c>
-      <c r="C33" s="95">
+      <c r="C33" s="106">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D33" s="95">
+      <c r="D33" s="106">
         <v>0.875</v>
       </c>
-      <c r="E33" s="101">
-        <v>0</v>
-      </c>
-      <c r="F33" s="101">
+      <c r="E33" s="87">
+        <v>0</v>
+      </c>
+      <c r="F33" s="87">
         <v>1</v>
       </c>
-      <c r="G33" s="101" t="s">
-        <v>29</v>
+      <c r="G33" s="87" t="s">
+        <v>28</v>
       </c>
       <c r="H33" s="25"/>
-      <c r="I33" s="101"/>
+      <c r="I33" s="87"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="102"/>
+      <c r="I34" s="88"/>
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="103"/>
+      <c r="I35" s="89"/>
       <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="93">
+      <c r="A36" s="85"/>
+      <c r="B36" s="104">
         <v>41066</v>
       </c>
-      <c r="C36" s="95">
+      <c r="C36" s="106">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D36" s="95">
+      <c r="D36" s="106">
         <v>0.875</v>
       </c>
-      <c r="E36" s="101">
-        <v>0</v>
-      </c>
-      <c r="F36" s="101">
+      <c r="E36" s="87">
+        <v>0</v>
+      </c>
+      <c r="F36" s="87">
         <v>1</v>
       </c>
-      <c r="G36" s="101" t="s">
-        <v>42</v>
+      <c r="G36" s="87" t="s">
+        <v>41</v>
       </c>
       <c r="H36" s="25"/>
-      <c r="I36" s="101"/>
+      <c r="I36" s="87"/>
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
       <c r="H37" s="25"/>
-      <c r="I37" s="102"/>
+      <c r="I37" s="88"/>
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="102"/>
+      <c r="I38" s="88"/>
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="103"/>
+      <c r="I39" s="89"/>
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="83"/>
+      <c r="A40" s="86"/>
       <c r="B40" s="31">
         <v>41067</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24"/>
@@ -2001,117 +2001,117 @@
       <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="81">
         <v>5</v>
       </c>
-      <c r="B45" s="87">
+      <c r="B45" s="90">
         <v>41075</v>
       </c>
-      <c r="C45" s="89">
+      <c r="C45" s="92">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D45" s="89">
+      <c r="D45" s="92">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E45" s="91">
-        <v>0</v>
-      </c>
-      <c r="F45" s="91">
+      <c r="E45" s="94">
+        <v>0</v>
+      </c>
+      <c r="F45" s="94">
         <v>3</v>
       </c>
-      <c r="G45" s="91" t="s">
-        <v>43</v>
+      <c r="G45" s="94" t="s">
+        <v>42</v>
       </c>
       <c r="H45" s="38"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
-      <c r="G46" s="110"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="102"/>
-      <c r="J46" s="102"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="85"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
-      <c r="G47" s="110"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="102"/>
-      <c r="J47" s="102"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="112"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
-      <c r="G48" s="110"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="102"/>
-      <c r="J48" s="102"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="85"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
       <c r="H49" s="33"/>
-      <c r="I49" s="103"/>
-      <c r="J49" s="103"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="85"/>
-      <c r="B50" s="87">
+      <c r="A50" s="82"/>
+      <c r="B50" s="90">
         <v>41076</v>
       </c>
-      <c r="C50" s="89">
+      <c r="C50" s="92">
         <v>0.375</v>
       </c>
-      <c r="D50" s="89">
+      <c r="D50" s="92">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E50" s="91">
-        <v>0</v>
-      </c>
-      <c r="F50" s="91">
+      <c r="E50" s="94">
+        <v>0</v>
+      </c>
+      <c r="F50" s="94">
         <v>2.5</v>
       </c>
-      <c r="G50" s="91" t="s">
-        <v>41</v>
+      <c r="G50" s="94" t="s">
+        <v>40</v>
       </c>
       <c r="H50" s="38"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="85"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="102"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
     </row>
     <row r="52" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
+      <c r="A52" s="83"/>
       <c r="B52" s="63">
         <v>41076</v>
       </c>
@@ -2128,100 +2128,100 @@
         <v>4</v>
       </c>
       <c r="G52" s="65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H52" s="65"/>
       <c r="I52" s="54"/>
       <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="84">
+      <c r="A53" s="81">
         <v>6</v>
       </c>
-      <c r="B53" s="87">
+      <c r="B53" s="90">
         <v>41077</v>
       </c>
-      <c r="C53" s="89">
+      <c r="C53" s="92">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D53" s="89">
+      <c r="D53" s="92">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E53" s="91">
-        <v>0</v>
-      </c>
-      <c r="F53" s="91">
+      <c r="E53" s="94">
+        <v>0</v>
+      </c>
+      <c r="F53" s="94">
         <v>4</v>
       </c>
-      <c r="G53" s="91" t="s">
-        <v>45</v>
+      <c r="G53" s="94" t="s">
+        <v>44</v>
       </c>
       <c r="H53" s="38"/>
-      <c r="I53" s="101"/>
+      <c r="I53" s="87"/>
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="85"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="110"/>
-      <c r="F54" s="110"/>
-      <c r="G54" s="110"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="96"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="102"/>
+      <c r="I54" s="88"/>
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="85"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="112"/>
-      <c r="D55" s="112"/>
-      <c r="E55" s="110"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="110"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="102"/>
+      <c r="I55" s="88"/>
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="85"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="110"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="110"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
+      <c r="G56" s="97"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="102"/>
+      <c r="I56" s="88"/>
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="85"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="112"/>
-      <c r="D57" s="112"/>
-      <c r="E57" s="110"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="110"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
       <c r="H57" s="38"/>
-      <c r="I57" s="102"/>
+      <c r="I57" s="88"/>
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="85"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="95"/>
+      <c r="G58" s="95"/>
       <c r="H58" s="38"/>
-      <c r="I58" s="102"/>
+      <c r="I58" s="88"/>
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="85"/>
+      <c r="A59" s="82"/>
       <c r="B59" s="63">
         <v>41078</v>
       </c>
@@ -2238,14 +2238,14 @@
         <v>2.5</v>
       </c>
       <c r="G59" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H59" s="65"/>
       <c r="I59" s="54"/>
       <c r="J59" s="54"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="85"/>
+      <c r="A60" s="82"/>
       <c r="B60" s="63">
         <v>41078</v>
       </c>
@@ -2262,14 +2262,14 @@
         <v>1.5</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" s="33"/>
       <c r="I60" s="35"/>
       <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="85"/>
+      <c r="A61" s="82"/>
       <c r="B61" s="63">
         <v>41079</v>
       </c>
@@ -2286,16 +2286,16 @@
         <v>1</v>
       </c>
       <c r="G61" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" s="33" t="s">
         <v>48</v>
-      </c>
-      <c r="H61" s="33" t="s">
-        <v>49</v>
       </c>
       <c r="I61" s="35"/>
       <c r="J61" s="35"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="85"/>
+      <c r="A62" s="82"/>
       <c r="B62" s="63">
         <v>41079</v>
       </c>
@@ -2312,14 +2312,14 @@
         <v>4</v>
       </c>
       <c r="G62" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" s="33"/>
       <c r="I62" s="35"/>
       <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="85"/>
+      <c r="A63" s="82"/>
       <c r="B63" s="63">
         <v>41080</v>
       </c>
@@ -2336,14 +2336,14 @@
         <v>4</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" s="33"/>
       <c r="I63" s="35"/>
       <c r="J63" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="86"/>
+      <c r="A64" s="83"/>
       <c r="B64" s="63">
         <v>40352</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>4</v>
       </c>
       <c r="G64" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="55"/>
@@ -2386,14 +2386,14 @@
         <v>0.5</v>
       </c>
       <c r="G65" s="70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="55"/>
       <c r="J65" s="55"/>
     </row>
     <row r="66" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="113">
+      <c r="A66" s="98">
         <v>9</v>
       </c>
       <c r="B66" s="63">
@@ -2412,14 +2412,14 @@
         <v>4</v>
       </c>
       <c r="G66" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="42"/>
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="114"/>
+      <c r="A67" s="99"/>
       <c r="B67" s="63">
         <v>41102</v>
       </c>
@@ -2436,14 +2436,14 @@
         <v>4</v>
       </c>
       <c r="G67" s="70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H67" s="33"/>
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="114"/>
+      <c r="A68" s="99"/>
       <c r="B68" s="63">
         <v>41103</v>
       </c>
@@ -2460,14 +2460,14 @@
         <v>4</v>
       </c>
       <c r="G68" s="73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="46"/>
       <c r="J68" s="54"/>
     </row>
     <row r="69" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="114"/>
+      <c r="A69" s="99"/>
       <c r="B69" s="56">
         <v>41104</v>
       </c>
@@ -2484,14 +2484,14 @@
         <v>4</v>
       </c>
       <c r="G69" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="46"/>
       <c r="J69" s="54"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="115"/>
+      <c r="A70" s="100"/>
       <c r="B70" s="63">
         <v>41105</v>
       </c>
@@ -2508,14 +2508,14 @@
         <v>4</v>
       </c>
       <c r="G70" s="65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="46"/>
       <c r="J70" s="54"/>
     </row>
     <row r="71" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="84">
+      <c r="A71" s="81">
         <v>10</v>
       </c>
       <c r="B71" s="63">
@@ -2534,14 +2534,14 @@
         <v>4</v>
       </c>
       <c r="G71" s="70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="46"/>
       <c r="J71" s="54"/>
     </row>
     <row r="72" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="85"/>
+      <c r="A72" s="82"/>
       <c r="B72" s="56">
         <v>41107</v>
       </c>
@@ -2558,14 +2558,14 @@
         <v>4</v>
       </c>
       <c r="G72" s="65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H72" s="57"/>
       <c r="I72" s="61"/>
       <c r="J72" s="24"/>
     </row>
     <row r="73" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="85"/>
+      <c r="A73" s="82"/>
       <c r="B73" s="63">
         <v>41108</v>
       </c>
@@ -2582,14 +2582,14 @@
         <v>4</v>
       </c>
       <c r="G73" s="70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="54"/>
       <c r="J73" s="54"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="85"/>
+      <c r="A74" s="82"/>
       <c r="B74" s="63">
         <v>41109</v>
       </c>
@@ -2606,14 +2606,14 @@
         <v>4</v>
       </c>
       <c r="G74" s="65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H74" s="78"/>
-      <c r="I74" s="101"/>
+      <c r="I74" s="87"/>
       <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="85"/>
+      <c r="A75" s="82"/>
       <c r="B75" s="56">
         <v>41110</v>
       </c>
@@ -2630,14 +2630,14 @@
         <v>4</v>
       </c>
       <c r="G75" s="70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H75" s="38"/>
-      <c r="I75" s="102"/>
+      <c r="I75" s="88"/>
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="85"/>
+      <c r="A76" s="82"/>
       <c r="B76" s="63">
         <v>41111</v>
       </c>
@@ -2654,14 +2654,14 @@
         <v>4</v>
       </c>
       <c r="G76" s="65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H76" s="38"/>
-      <c r="I76" s="102"/>
+      <c r="I76" s="88"/>
       <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="86"/>
+      <c r="A77" s="83"/>
       <c r="B77" s="63">
         <v>41112</v>
       </c>
@@ -2678,14 +2678,14 @@
         <v>4</v>
       </c>
       <c r="G77" s="70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H77" s="38"/>
-      <c r="I77" s="102"/>
+      <c r="I77" s="88"/>
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="84">
+      <c r="A78" s="81">
         <v>11</v>
       </c>
       <c r="B78" s="56">
@@ -2704,14 +2704,14 @@
         <v>4</v>
       </c>
       <c r="G78" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H78" s="38"/>
-      <c r="I78" s="102"/>
+      <c r="I78" s="88"/>
       <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="85"/>
+      <c r="A79" s="82"/>
       <c r="B79" s="56">
         <v>41114</v>
       </c>
@@ -2728,14 +2728,14 @@
         <v>4</v>
       </c>
       <c r="G79" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H79" s="38"/>
-      <c r="I79" s="102"/>
+      <c r="I79" s="88"/>
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="85"/>
+      <c r="A80" s="82"/>
       <c r="B80" s="63">
         <v>41115</v>
       </c>
@@ -2752,14 +2752,14 @@
         <v>4</v>
       </c>
       <c r="G80" s="65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H80" s="65"/>
       <c r="I80" s="54"/>
       <c r="J80" s="54"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="85"/>
+      <c r="A81" s="82"/>
       <c r="B81" s="36">
         <v>41116</v>
       </c>
@@ -2776,14 +2776,14 @@
         <v>3.5</v>
       </c>
       <c r="G81" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H81" s="33"/>
       <c r="I81" s="35"/>
       <c r="J81" s="35"/>
     </row>
     <row r="82" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="85"/>
+      <c r="A82" s="82"/>
       <c r="B82" s="63">
         <v>41117</v>
       </c>
@@ -2800,14 +2800,14 @@
         <v>3.5</v>
       </c>
       <c r="G82" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H82" s="33"/>
       <c r="I82" s="35"/>
       <c r="J82" s="35"/>
     </row>
     <row r="83" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="85"/>
+      <c r="A83" s="82"/>
       <c r="B83" s="36">
         <v>41118</v>
       </c>
@@ -2824,14 +2824,14 @@
         <v>7</v>
       </c>
       <c r="G83" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H83" s="33"/>
       <c r="I83" s="24"/>
       <c r="J83" s="24"/>
     </row>
     <row r="84" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="85"/>
+      <c r="A84" s="82"/>
       <c r="B84" s="56">
         <v>41119</v>
       </c>
@@ -2848,14 +2848,14 @@
         <v>4.5</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H84" s="33"/>
       <c r="I84" s="80"/>
       <c r="J84" s="24"/>
     </row>
     <row r="85" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="86"/>
+      <c r="A85" s="83"/>
       <c r="B85" s="36">
         <v>41119</v>
       </c>
@@ -2872,14 +2872,14 @@
         <v>6</v>
       </c>
       <c r="G85" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H85" s="33"/>
       <c r="I85" s="24"/>
       <c r="J85" s="24"/>
     </row>
     <row r="86" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="81">
+      <c r="A86" s="84">
         <v>12</v>
       </c>
       <c r="B86" s="31">
@@ -2898,14 +2898,14 @@
         <v>2</v>
       </c>
       <c r="G86" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H86" s="24"/>
       <c r="I86" s="24"/>
       <c r="J86" s="24"/>
     </row>
     <row r="87" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="82"/>
+      <c r="A87" s="85"/>
       <c r="B87" s="31">
         <v>41120</v>
       </c>
@@ -2922,14 +2922,14 @@
         <v>7.5</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H87" s="24"/>
       <c r="I87" s="24"/>
       <c r="J87" s="24"/>
     </row>
     <row r="88" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="82"/>
+      <c r="A88" s="85"/>
       <c r="B88" s="40">
         <v>41121</v>
       </c>
@@ -2946,50 +2946,50 @@
         <v>4</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H88" s="35"/>
       <c r="I88" s="35"/>
       <c r="J88" s="35"/>
     </row>
     <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="82"/>
-      <c r="B89" s="93">
+      <c r="A89" s="85"/>
+      <c r="B89" s="104">
         <v>41121</v>
       </c>
-      <c r="C89" s="95">
+      <c r="C89" s="106">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D89" s="95">
+      <c r="D89" s="106">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E89" s="101">
-        <v>0</v>
-      </c>
-      <c r="F89" s="101">
+      <c r="E89" s="87">
+        <v>0</v>
+      </c>
+      <c r="F89" s="87">
         <v>7.5</v>
       </c>
-      <c r="G89" s="101" t="s">
-        <v>67</v>
+      <c r="G89" s="87" t="s">
+        <v>66</v>
       </c>
       <c r="H89" s="25"/>
-      <c r="I89" s="101"/>
-      <c r="J89" s="101"/>
+      <c r="I89" s="87"/>
+      <c r="J89" s="87"/>
     </row>
     <row r="90" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="82"/>
-      <c r="B90" s="94"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="96"/>
-      <c r="E90" s="103"/>
-      <c r="F90" s="103"/>
-      <c r="G90" s="103"/>
+      <c r="A90" s="85"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="107"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="89"/>
       <c r="H90" s="24"/>
-      <c r="I90" s="103"/>
-      <c r="J90" s="103"/>
+      <c r="I90" s="89"/>
+      <c r="J90" s="89"/>
     </row>
     <row r="91" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="82"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="62">
         <v>41121</v>
       </c>
@@ -3006,14 +3006,14 @@
         <v>2</v>
       </c>
       <c r="G91" s="59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H91" s="25"/>
       <c r="I91" s="59"/>
       <c r="J91" s="59"/>
     </row>
     <row r="92" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="82"/>
+      <c r="A92" s="85"/>
       <c r="B92" s="62">
         <v>41122</v>
       </c>
@@ -3030,14 +3030,14 @@
         <v>7</v>
       </c>
       <c r="G92" s="59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H92" s="46"/>
       <c r="I92" s="59"/>
       <c r="J92" s="59"/>
     </row>
     <row r="93" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="82"/>
+      <c r="A93" s="85"/>
       <c r="B93" s="43">
         <v>41123</v>
       </c>
@@ -3054,14 +3054,14 @@
         <v>2</v>
       </c>
       <c r="G93" s="54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H93" s="54"/>
       <c r="I93" s="54"/>
       <c r="J93" s="54"/>
     </row>
     <row r="94" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="82"/>
+      <c r="A94" s="85"/>
       <c r="B94" s="31">
         <v>41123</v>
       </c>
@@ -3078,14 +3078,14 @@
         <v>7</v>
       </c>
       <c r="G94" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H94" s="24"/>
       <c r="I94" s="24"/>
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="82"/>
+      <c r="A95" s="85"/>
       <c r="B95" s="52">
         <v>41124</v>
       </c>
@@ -3102,14 +3102,14 @@
         <v>7</v>
       </c>
       <c r="G95" s="46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H95" s="35"/>
       <c r="I95" s="35"/>
       <c r="J95" s="35"/>
     </row>
     <row r="96" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="82"/>
+      <c r="A96" s="85"/>
       <c r="B96" s="40">
         <v>41124</v>
       </c>
@@ -3126,14 +3126,14 @@
         <v>1.5</v>
       </c>
       <c r="G96" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H96" s="24"/>
       <c r="I96" s="24"/>
       <c r="J96" s="24"/>
     </row>
     <row r="97" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="82"/>
+      <c r="A97" s="85"/>
       <c r="B97" s="31">
         <v>41125</v>
       </c>
@@ -3150,14 +3150,14 @@
         <v>6</v>
       </c>
       <c r="G97" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H97" s="24"/>
       <c r="I97" s="24"/>
       <c r="J97" s="24"/>
     </row>
     <row r="98" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="83"/>
+      <c r="A98" s="86"/>
       <c r="B98" s="31">
         <v>41126</v>
       </c>
@@ -3174,14 +3174,14 @@
         <v>4</v>
       </c>
       <c r="G98" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H98" s="24"/>
       <c r="I98" s="24"/>
       <c r="J98" s="24"/>
     </row>
     <row r="99" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="81">
+      <c r="A99" s="84">
         <v>13</v>
       </c>
       <c r="B99" s="31">
@@ -3200,14 +3200,14 @@
         <v>2.5</v>
       </c>
       <c r="G99" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H99" s="24"/>
       <c r="I99" s="24"/>
       <c r="J99" s="24"/>
     </row>
     <row r="100" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="82"/>
+      <c r="A100" s="85"/>
       <c r="B100" s="31">
         <v>41127</v>
       </c>
@@ -3224,14 +3224,14 @@
         <v>3</v>
       </c>
       <c r="G100" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H100" s="24"/>
       <c r="I100" s="24"/>
       <c r="J100" s="24"/>
     </row>
     <row r="101" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="82"/>
+      <c r="A101" s="85"/>
       <c r="B101" s="31">
         <v>41127</v>
       </c>
@@ -3248,14 +3248,14 @@
         <v>3</v>
       </c>
       <c r="G101" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H101" s="24"/>
       <c r="I101" s="24"/>
       <c r="J101" s="24"/>
     </row>
     <row r="102" spans="1:10" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="82"/>
+      <c r="A102" s="85"/>
       <c r="B102" s="31">
         <v>41128</v>
       </c>
@@ -3272,14 +3272,14 @@
         <v>7</v>
       </c>
       <c r="G102" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H102" s="24"/>
       <c r="I102" s="24"/>
       <c r="J102" s="24"/>
     </row>
     <row r="103" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="82"/>
+      <c r="A103" s="85"/>
       <c r="B103" s="31">
         <v>41128</v>
       </c>
@@ -3296,16 +3296,16 @@
         <v>2.5</v>
       </c>
       <c r="G103" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H103" s="24"/>
       <c r="I103" s="24"/>
       <c r="J103" s="24"/>
     </row>
     <row r="104" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="82"/>
+      <c r="A104" s="85"/>
       <c r="B104" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C104" s="32">
         <v>0.375</v>
@@ -3320,14 +3320,14 @@
         <v>2.5</v>
       </c>
       <c r="G104" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H104" s="24"/>
       <c r="I104" s="24"/>
       <c r="J104" s="24"/>
     </row>
     <row r="105" spans="1:10" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="82"/>
+      <c r="A105" s="85"/>
       <c r="B105" s="31">
         <v>41129</v>
       </c>
@@ -3344,14 +3344,14 @@
         <v>8</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H105" s="24"/>
       <c r="I105" s="24"/>
       <c r="J105" s="24"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="83"/>
+      <c r="A106" s="86"/>
       <c r="B106" s="31">
         <v>41130</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>2</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H106" s="24"/>
       <c r="I106" s="24"/>
@@ -3379,20 +3379,20 @@
       <c r="B107" s="52">
         <v>41136</v>
       </c>
-      <c r="C107" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="D107" s="108"/>
-      <c r="E107" s="108"/>
-      <c r="F107" s="108"/>
-      <c r="G107" s="108"/>
-      <c r="H107" s="108"/>
-      <c r="I107" s="108"/>
-      <c r="J107" s="109"/>
+      <c r="C107" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="102"/>
+      <c r="E107" s="102"/>
+      <c r="F107" s="102"/>
+      <c r="G107" s="102"/>
+      <c r="H107" s="102"/>
+      <c r="I107" s="102"/>
+      <c r="J107" s="103"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E108" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F108" s="26">
         <f>SUM(F7:F106)</f>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E109" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F109" s="26">
         <f>F108/12</f>
@@ -3410,6 +3410,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="C107:J107"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
     <mergeCell ref="A71:A77"/>
     <mergeCell ref="A78:A85"/>
     <mergeCell ref="A99:A106"/>
@@ -3434,85 +3513,6 @@
     <mergeCell ref="A53:A64"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="E45:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="C107:J107"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3535,7 +3535,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="117"/>
@@ -3561,13 +3561,13 @@
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="122"/>
       <c r="E3" s="123">
@@ -3581,10 +3581,10 @@
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="C4" s="10">
         <f>E3</f>
@@ -3615,13 +3615,13 @@
         <v>41056</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="14">
         <f>E3</f>
@@ -3656,7 +3656,7 @@
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="18">
         <v>0.5</v>
@@ -3675,7 +3675,7 @@
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="18">
         <v>1</v>
@@ -3696,7 +3696,7 @@
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="18">
         <v>2</v>
@@ -3723,7 +3723,7 @@
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="18">
         <v>2</v>
@@ -3742,7 +3742,7 @@
     <row r="10" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
       <c r="B10" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="22">
         <f t="shared" ref="C10:J10" si="1">SUM(C6:C9)</f>

--- a/trunk/SEP/Time Log & Planned Weekly/Timelog_HuyHuynh_SEP.xlsx
+++ b/trunk/SEP/Time Log & Planned Weekly/Timelog_HuyHuynh_SEP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>SUMMARY: TIME FOR DOING PROJECT</t>
   </si>
@@ -249,22 +249,19 @@
     <t>Meeting with Giang Nguyen for code function Statistics (Winform) and fix function view log</t>
   </si>
   <si>
-    <t>Code function Statistics (Winform)</t>
-  </si>
-  <si>
     <t>Meeting with Giang Nguyen for fix function Language</t>
   </si>
   <si>
     <t>Meeting with Giang Nguyen for Code function Statistics (Winform) And fix function Statistics (WebForm)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>AVG (hours/week)</t>
   </si>
   <si>
     <t>Time Recording Log For:    SEP Project</t>
+  </si>
+  <si>
+    <t>Meeting Giang Nguyen Fix Statistics (Win+Web)</t>
   </si>
 </sst>
 </file>
@@ -597,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,6 +814,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,45 +832,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -884,42 +917,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -935,6 +932,9 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1237,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M109"/>
+  <dimension ref="A2:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1263,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="81">
+      <c r="A7" s="84">
         <v>1</v>
       </c>
       <c r="B7" s="31">
@@ -1368,7 +1368,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="34"/>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="M8" s="30">
         <f>SUM(F30:F39)+SUM(F60:F69) + SUM(F86:F94)</f>
-        <v>72</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="36"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -1400,7 +1400,7 @@
       <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -1413,29 +1413,29 @@
       <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
       <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="110"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
       <c r="L12" s="26" t="s">
         <v>20</v>
       </c>
@@ -1445,7 +1445,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81">
+      <c r="A13" s="84">
         <v>2</v>
       </c>
       <c r="B13" s="31">
@@ -1478,7 +1478,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="31">
         <v>41051</v>
       </c>
@@ -1503,28 +1503,28 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="90">
+      <c r="A15" s="85"/>
+      <c r="B15" s="87">
         <v>41052</v>
       </c>
-      <c r="C15" s="92">
+      <c r="C15" s="89">
         <v>0.875</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="89">
         <v>0.9375</v>
       </c>
-      <c r="E15" s="94">
-        <v>0</v>
-      </c>
-      <c r="F15" s="94">
+      <c r="E15" s="91">
+        <v>0</v>
+      </c>
+      <c r="F15" s="91">
         <v>1.5</v>
       </c>
-      <c r="G15" s="94" t="s">
+      <c r="G15" s="91" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="38"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
       <c r="L15" s="26" t="s">
         <v>25</v>
       </c>
@@ -1534,16 +1534,16 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -1565,45 +1565,45 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="81">
         <v>3</v>
       </c>
-      <c r="B18" s="104">
+      <c r="B18" s="93">
         <v>41057</v>
       </c>
-      <c r="C18" s="106">
+      <c r="C18" s="95">
         <v>0.375</v>
       </c>
-      <c r="D18" s="106">
+      <c r="D18" s="95">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E18" s="87">
-        <v>0</v>
-      </c>
-      <c r="F18" s="87">
+      <c r="E18" s="101">
+        <v>0</v>
+      </c>
+      <c r="F18" s="101">
         <v>2</v>
       </c>
-      <c r="G18" s="87" t="s">
+      <c r="G18" s="101" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="25"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
+      <c r="A20" s="82"/>
       <c r="B20" s="43">
         <v>41058</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
+      <c r="A21" s="82"/>
       <c r="B21" s="43">
         <v>41059</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="43">
         <v>41059</v>
       </c>
@@ -1675,103 +1675,103 @@
       <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="109">
+      <c r="A23" s="82"/>
+      <c r="B23" s="100">
         <v>41060</v>
       </c>
-      <c r="C23" s="106">
+      <c r="C23" s="95">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D23" s="106">
+      <c r="D23" s="95">
         <v>0.875</v>
       </c>
-      <c r="E23" s="87">
-        <v>0</v>
-      </c>
-      <c r="F23" s="87">
+      <c r="E23" s="101">
+        <v>0</v>
+      </c>
+      <c r="F23" s="101">
         <v>2</v>
       </c>
-      <c r="G23" s="87" t="s">
+      <c r="G23" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="88"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
-      <c r="B24" s="109"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="109"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="85"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="88"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="103"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="104">
+      <c r="A27" s="82"/>
+      <c r="B27" s="93">
         <v>41061</v>
       </c>
-      <c r="C27" s="106">
+      <c r="C27" s="95">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D27" s="106">
+      <c r="D27" s="95">
         <v>0.875</v>
       </c>
-      <c r="E27" s="87">
-        <v>0</v>
-      </c>
-      <c r="F27" s="87">
+      <c r="E27" s="101">
+        <v>0</v>
+      </c>
+      <c r="F27" s="101">
         <v>1</v>
       </c>
-      <c r="G27" s="87" t="s">
+      <c r="G27" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="85"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -1783,153 +1783,153 @@
       <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
-      <c r="B30" s="113"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
-      <c r="I30" s="87"/>
+      <c r="I30" s="101"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
-      <c r="B31" s="114"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="88"/>
+      <c r="I31" s="103"/>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
-      <c r="B32" s="115"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="50"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
-      <c r="I32" s="89"/>
+      <c r="I32" s="102"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="84">
+      <c r="A33" s="81">
         <v>4</v>
       </c>
-      <c r="B33" s="104">
+      <c r="B33" s="93">
         <v>41065</v>
       </c>
-      <c r="C33" s="106">
+      <c r="C33" s="95">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D33" s="106">
+      <c r="D33" s="95">
         <v>0.875</v>
       </c>
-      <c r="E33" s="87">
-        <v>0</v>
-      </c>
-      <c r="F33" s="87">
+      <c r="E33" s="101">
+        <v>0</v>
+      </c>
+      <c r="F33" s="101">
         <v>1</v>
       </c>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="101" t="s">
         <v>28</v>
       </c>
       <c r="H33" s="25"/>
-      <c r="I33" s="87"/>
+      <c r="I33" s="101"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
-      <c r="B34" s="109"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="108"/>
       <c r="D34" s="108"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="88"/>
+      <c r="I34" s="103"/>
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="85"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="102"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="89"/>
+      <c r="I35" s="102"/>
       <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="85"/>
-      <c r="B36" s="104">
+      <c r="A36" s="82"/>
+      <c r="B36" s="93">
         <v>41066</v>
       </c>
-      <c r="C36" s="106">
+      <c r="C36" s="95">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D36" s="106">
+      <c r="D36" s="95">
         <v>0.875</v>
       </c>
-      <c r="E36" s="87">
-        <v>0</v>
-      </c>
-      <c r="F36" s="87">
+      <c r="E36" s="101">
+        <v>0</v>
+      </c>
+      <c r="F36" s="101">
         <v>1</v>
       </c>
-      <c r="G36" s="87" t="s">
+      <c r="G36" s="101" t="s">
         <v>41</v>
       </c>
       <c r="H36" s="25"/>
-      <c r="I36" s="87"/>
+      <c r="I36" s="101"/>
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="85"/>
-      <c r="B37" s="109"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="108"/>
       <c r="D37" s="108"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
       <c r="H37" s="25"/>
-      <c r="I37" s="88"/>
+      <c r="I37" s="103"/>
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="85"/>
-      <c r="B38" s="109"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="108"/>
       <c r="D38" s="108"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="103"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="88"/>
+      <c r="I38" s="103"/>
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="85"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="102"/>
+      <c r="G39" s="102"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="89"/>
+      <c r="I39" s="102"/>
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="86"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="31">
         <v>41067</v>
       </c>
@@ -2001,117 +2001,117 @@
       <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="81">
+      <c r="A45" s="84">
         <v>5</v>
       </c>
-      <c r="B45" s="90">
+      <c r="B45" s="87">
         <v>41075</v>
       </c>
-      <c r="C45" s="92">
+      <c r="C45" s="89">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D45" s="92">
+      <c r="D45" s="89">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E45" s="94">
-        <v>0</v>
-      </c>
-      <c r="F45" s="94">
+      <c r="E45" s="91">
+        <v>0</v>
+      </c>
+      <c r="F45" s="91">
         <v>3</v>
       </c>
-      <c r="G45" s="94" t="s">
+      <c r="G45" s="91" t="s">
         <v>42</v>
       </c>
       <c r="H45" s="38"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
+      <c r="I45" s="101"/>
+      <c r="J45" s="101"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="82"/>
-      <c r="B46" s="91"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
+      <c r="A46" s="85"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="82"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
+      <c r="A47" s="85"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="107"/>
+      <c r="D47" s="107"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="82"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
+      <c r="A48" s="85"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="107"/>
+      <c r="D48" s="107"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="103"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="82"/>
-      <c r="B49" s="110"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="95"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="95"/>
+      <c r="A49" s="85"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="90"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="33"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="82"/>
-      <c r="B50" s="90">
+      <c r="A50" s="85"/>
+      <c r="B50" s="87">
         <v>41076</v>
       </c>
-      <c r="C50" s="92">
+      <c r="C50" s="89">
         <v>0.375</v>
       </c>
-      <c r="D50" s="92">
+      <c r="D50" s="89">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E50" s="94">
-        <v>0</v>
-      </c>
-      <c r="F50" s="94">
+      <c r="E50" s="91">
+        <v>0</v>
+      </c>
+      <c r="F50" s="91">
         <v>2.5</v>
       </c>
-      <c r="G50" s="94" t="s">
+      <c r="G50" s="91" t="s">
         <v>40</v>
       </c>
       <c r="H50" s="38"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
+      <c r="I50" s="101"/>
+      <c r="J50" s="101"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="82"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="103"/>
     </row>
     <row r="52" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="83"/>
+      <c r="A52" s="86"/>
       <c r="B52" s="63">
         <v>41076</v>
       </c>
@@ -2135,93 +2135,93 @@
       <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="81">
+      <c r="A53" s="84">
         <v>6</v>
       </c>
-      <c r="B53" s="90">
+      <c r="B53" s="87">
         <v>41077</v>
       </c>
-      <c r="C53" s="92">
+      <c r="C53" s="89">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D53" s="92">
+      <c r="D53" s="89">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E53" s="94">
-        <v>0</v>
-      </c>
-      <c r="F53" s="94">
+      <c r="E53" s="91">
+        <v>0</v>
+      </c>
+      <c r="F53" s="91">
         <v>4</v>
       </c>
-      <c r="G53" s="94" t="s">
+      <c r="G53" s="91" t="s">
         <v>44</v>
       </c>
       <c r="H53" s="38"/>
-      <c r="I53" s="87"/>
+      <c r="I53" s="101"/>
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="82"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="96"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="88"/>
+      <c r="I54" s="103"/>
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="82"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="88"/>
+      <c r="I55" s="103"/>
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="82"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="109"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="88"/>
+      <c r="I56" s="103"/>
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="82"/>
-      <c r="B57" s="91"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="97"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
       <c r="H57" s="38"/>
-      <c r="I57" s="88"/>
+      <c r="I57" s="103"/>
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="82"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="95"/>
-      <c r="G58" s="95"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
       <c r="H58" s="38"/>
-      <c r="I58" s="88"/>
+      <c r="I58" s="103"/>
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="82"/>
+      <c r="A59" s="85"/>
       <c r="B59" s="63">
         <v>41078</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="J59" s="54"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="82"/>
+      <c r="A60" s="85"/>
       <c r="B60" s="63">
         <v>41078</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="82"/>
+      <c r="A61" s="85"/>
       <c r="B61" s="63">
         <v>41079</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="J61" s="35"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="82"/>
+      <c r="A62" s="85"/>
       <c r="B62" s="63">
         <v>41079</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="82"/>
+      <c r="A63" s="85"/>
       <c r="B63" s="63">
         <v>41080</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="J63" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="83"/>
+      <c r="A64" s="86"/>
       <c r="B64" s="63">
         <v>40352</v>
       </c>
@@ -2393,7 +2393,7 @@
       <c r="J65" s="55"/>
     </row>
     <row r="66" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="98">
+      <c r="A66" s="110">
         <v>9</v>
       </c>
       <c r="B66" s="63">
@@ -2419,7 +2419,7 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="99"/>
+      <c r="A67" s="111"/>
       <c r="B67" s="63">
         <v>41102</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="99"/>
+      <c r="A68" s="111"/>
       <c r="B68" s="63">
         <v>41103</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="J68" s="54"/>
     </row>
     <row r="69" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="99"/>
+      <c r="A69" s="111"/>
       <c r="B69" s="56">
         <v>41104</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="J69" s="54"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="100"/>
+      <c r="A70" s="112"/>
       <c r="B70" s="63">
         <v>41105</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="J70" s="54"/>
     </row>
     <row r="71" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="81">
+      <c r="A71" s="84">
         <v>10</v>
       </c>
       <c r="B71" s="63">
@@ -2541,7 +2541,7 @@
       <c r="J71" s="54"/>
     </row>
     <row r="72" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="82"/>
+      <c r="A72" s="85"/>
       <c r="B72" s="56">
         <v>41107</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="J72" s="24"/>
     </row>
     <row r="73" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="82"/>
+      <c r="A73" s="85"/>
       <c r="B73" s="63">
         <v>41108</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="J73" s="54"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="82"/>
+      <c r="A74" s="85"/>
       <c r="B74" s="63">
         <v>41109</v>
       </c>
@@ -2609,11 +2609,11 @@
         <v>51</v>
       </c>
       <c r="H74" s="78"/>
-      <c r="I74" s="87"/>
+      <c r="I74" s="101"/>
       <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="82"/>
+      <c r="A75" s="85"/>
       <c r="B75" s="56">
         <v>41110</v>
       </c>
@@ -2633,11 +2633,11 @@
         <v>52</v>
       </c>
       <c r="H75" s="38"/>
-      <c r="I75" s="88"/>
+      <c r="I75" s="103"/>
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="82"/>
+      <c r="A76" s="85"/>
       <c r="B76" s="63">
         <v>41111</v>
       </c>
@@ -2657,11 +2657,11 @@
         <v>53</v>
       </c>
       <c r="H76" s="38"/>
-      <c r="I76" s="88"/>
+      <c r="I76" s="103"/>
       <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="83"/>
+      <c r="A77" s="86"/>
       <c r="B77" s="63">
         <v>41112</v>
       </c>
@@ -2681,11 +2681,11 @@
         <v>54</v>
       </c>
       <c r="H77" s="38"/>
-      <c r="I77" s="88"/>
+      <c r="I77" s="103"/>
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="81">
+      <c r="A78" s="84">
         <v>11</v>
       </c>
       <c r="B78" s="56">
@@ -2707,11 +2707,11 @@
         <v>55</v>
       </c>
       <c r="H78" s="38"/>
-      <c r="I78" s="88"/>
+      <c r="I78" s="103"/>
       <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="82"/>
+      <c r="A79" s="85"/>
       <c r="B79" s="56">
         <v>41114</v>
       </c>
@@ -2731,11 +2731,11 @@
         <v>56</v>
       </c>
       <c r="H79" s="38"/>
-      <c r="I79" s="88"/>
+      <c r="I79" s="103"/>
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="82"/>
+      <c r="A80" s="85"/>
       <c r="B80" s="63">
         <v>41115</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="J80" s="54"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="82"/>
+      <c r="A81" s="85"/>
       <c r="B81" s="36">
         <v>41116</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="J81" s="35"/>
     </row>
     <row r="82" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="82"/>
+      <c r="A82" s="85"/>
       <c r="B82" s="63">
         <v>41117</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="J82" s="35"/>
     </row>
     <row r="83" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="82"/>
+      <c r="A83" s="85"/>
       <c r="B83" s="36">
         <v>41118</v>
       </c>
@@ -2818,10 +2818,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E83" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" s="33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G83" s="33" t="s">
         <v>64</v>
@@ -2831,7 +2831,7 @@
       <c r="J83" s="24"/>
     </row>
     <row r="84" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="82"/>
+      <c r="A84" s="85"/>
       <c r="B84" s="56">
         <v>41119</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="J84" s="24"/>
     </row>
     <row r="85" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="83"/>
+      <c r="A85" s="86"/>
       <c r="B85" s="36">
         <v>41119</v>
       </c>
@@ -2866,10 +2866,10 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="E85" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F85" s="33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G85" s="33" t="s">
         <v>71</v>
@@ -2879,7 +2879,7 @@
       <c r="J85" s="24"/>
     </row>
     <row r="86" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="84">
+      <c r="A86" s="81">
         <v>12</v>
       </c>
       <c r="B86" s="31">
@@ -2905,7 +2905,7 @@
       <c r="J86" s="24"/>
     </row>
     <row r="87" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="85"/>
+      <c r="A87" s="82"/>
       <c r="B87" s="31">
         <v>41120</v>
       </c>
@@ -2916,10 +2916,10 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="E87" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F87" s="24">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="G87" s="33" t="s">
         <v>63</v>
@@ -2929,7 +2929,7 @@
       <c r="J87" s="24"/>
     </row>
     <row r="88" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="85"/>
+      <c r="A88" s="82"/>
       <c r="B88" s="40">
         <v>41121</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="35">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="G88" s="33" t="s">
         <v>62</v>
@@ -2953,43 +2953,43 @@
       <c r="J88" s="35"/>
     </row>
     <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="85"/>
-      <c r="B89" s="104">
+      <c r="A89" s="82"/>
+      <c r="B89" s="93">
         <v>41121</v>
       </c>
-      <c r="C89" s="106">
+      <c r="C89" s="95">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D89" s="106">
+      <c r="D89" s="95">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E89" s="87">
-        <v>0</v>
-      </c>
-      <c r="F89" s="87">
-        <v>7.5</v>
-      </c>
-      <c r="G89" s="87" t="s">
+      <c r="E89" s="101">
+        <v>2</v>
+      </c>
+      <c r="F89" s="101">
+        <v>5.5</v>
+      </c>
+      <c r="G89" s="101" t="s">
         <v>66</v>
       </c>
       <c r="H89" s="25"/>
-      <c r="I89" s="87"/>
-      <c r="J89" s="87"/>
+      <c r="I89" s="101"/>
+      <c r="J89" s="101"/>
     </row>
     <row r="90" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="85"/>
-      <c r="B90" s="105"/>
-      <c r="C90" s="107"/>
-      <c r="D90" s="107"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="89"/>
+      <c r="A90" s="82"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="102"/>
+      <c r="F90" s="102"/>
+      <c r="G90" s="102"/>
       <c r="H90" s="24"/>
-      <c r="I90" s="89"/>
-      <c r="J90" s="89"/>
+      <c r="I90" s="102"/>
+      <c r="J90" s="102"/>
     </row>
     <row r="91" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="85"/>
+      <c r="A91" s="82"/>
       <c r="B91" s="62">
         <v>41121</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="J91" s="59"/>
     </row>
     <row r="92" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="85"/>
+      <c r="A92" s="82"/>
       <c r="B92" s="62">
         <v>41122</v>
       </c>
@@ -3024,10 +3024,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E92" s="59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92" s="59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G92" s="59" t="s">
         <v>67</v>
@@ -3037,7 +3037,7 @@
       <c r="J92" s="59"/>
     </row>
     <row r="93" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="85"/>
+      <c r="A93" s="82"/>
       <c r="B93" s="43">
         <v>41123</v>
       </c>
@@ -3061,7 +3061,7 @@
       <c r="J93" s="54"/>
     </row>
     <row r="94" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="85"/>
+      <c r="A94" s="82"/>
       <c r="B94" s="31">
         <v>41123</v>
       </c>
@@ -3072,10 +3072,10 @@
         <v>0.8125</v>
       </c>
       <c r="E94" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F94" s="24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G94" s="46" t="s">
         <v>68</v>
@@ -3085,7 +3085,7 @@
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="85"/>
+      <c r="A95" s="82"/>
       <c r="B95" s="52">
         <v>41124</v>
       </c>
@@ -3096,10 +3096,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E95" s="35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F95" s="35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G95" s="46" t="s">
         <v>69</v>
@@ -3109,7 +3109,7 @@
       <c r="J95" s="35"/>
     </row>
     <row r="96" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="85"/>
+      <c r="A96" s="82"/>
       <c r="B96" s="40">
         <v>41124</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="J96" s="24"/>
     </row>
     <row r="97" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="85"/>
+      <c r="A97" s="82"/>
       <c r="B97" s="31">
         <v>41125</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="J97" s="24"/>
     </row>
     <row r="98" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="86"/>
+      <c r="A98" s="83"/>
       <c r="B98" s="31">
         <v>41126</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="J98" s="24"/>
     </row>
     <row r="99" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="84">
+      <c r="A99" s="81">
         <v>13</v>
       </c>
       <c r="B99" s="31">
@@ -3207,7 +3207,7 @@
       <c r="J99" s="24"/>
     </row>
     <row r="100" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="85"/>
+      <c r="A100" s="82"/>
       <c r="B100" s="31">
         <v>41127</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="J100" s="24"/>
     </row>
     <row r="101" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="85"/>
+      <c r="A101" s="82"/>
       <c r="B101" s="31">
         <v>41127</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="J101" s="24"/>
     </row>
     <row r="102" spans="1:10" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="85"/>
+      <c r="A102" s="82"/>
       <c r="B102" s="31">
         <v>41128</v>
       </c>
@@ -3266,10 +3266,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E102" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F102" s="24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G102" s="24" t="s">
         <v>76</v>
@@ -3278,22 +3278,22 @@
       <c r="I102" s="24"/>
       <c r="J102" s="24"/>
     </row>
-    <row r="103" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="85"/>
+    <row r="103" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="82"/>
       <c r="B103" s="31">
-        <v>41128</v>
+        <v>41129</v>
       </c>
       <c r="C103" s="32">
-        <v>0.91666666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="D103" s="32">
-        <v>2.0833333333333332E-2</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E103" s="24">
         <v>0</v>
       </c>
       <c r="F103" s="24">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G103" s="24" t="s">
         <v>77</v>
@@ -3302,22 +3302,22 @@
       <c r="I103" s="24"/>
       <c r="J103" s="24"/>
     </row>
-    <row r="104" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="85"/>
-      <c r="B104" s="31" t="s">
-        <v>80</v>
+    <row r="104" spans="1:10" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="82"/>
+      <c r="B104" s="31">
+        <v>41129</v>
       </c>
       <c r="C104" s="32">
-        <v>0.375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D104" s="32">
-        <v>0.47916666666666669</v>
+        <v>0.875</v>
       </c>
       <c r="E104" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F104" s="24">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="G104" s="24" t="s">
         <v>78</v>
@@ -3326,123 +3326,254 @@
       <c r="I104" s="24"/>
       <c r="J104" s="24"/>
     </row>
-    <row r="105" spans="1:10" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="85"/>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="82"/>
       <c r="B105" s="31">
-        <v>41129</v>
+        <v>41130</v>
       </c>
       <c r="C105" s="32">
-        <v>0.54166666666666663</v>
+        <v>0.375</v>
       </c>
       <c r="D105" s="32">
-        <v>0.875</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E105" s="24">
         <v>0</v>
       </c>
       <c r="F105" s="24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G105" s="24" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H105" s="24"/>
       <c r="I105" s="24"/>
       <c r="J105" s="24"/>
     </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="86"/>
+    <row r="106" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="82"/>
       <c r="B106" s="31">
         <v>41130</v>
       </c>
       <c r="C106" s="32">
-        <v>0.375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="D106" s="32">
-        <v>0.45833333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E106" s="24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F106" s="24">
+        <v>5</v>
+      </c>
+      <c r="G106" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="H106" s="124"/>
+      <c r="I106" s="124"/>
+      <c r="J106" s="24"/>
+    </row>
+    <row r="107" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="82"/>
+      <c r="B107" s="31">
+        <v>41131</v>
+      </c>
+      <c r="C107" s="32">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D107" s="32">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E107" s="24">
+        <v>0</v>
+      </c>
+      <c r="F107" s="24">
         <v>2</v>
       </c>
-      <c r="G106" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H106" s="24"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="53"/>
-      <c r="B107" s="52">
+      <c r="G107" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="H107" s="124"/>
+      <c r="I107" s="124"/>
+      <c r="J107" s="24"/>
+    </row>
+    <row r="108" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="82"/>
+      <c r="B108" s="31">
+        <v>41131</v>
+      </c>
+      <c r="C108" s="32">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D108" s="32">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E108" s="24">
+        <v>2</v>
+      </c>
+      <c r="F108" s="24">
+        <v>5</v>
+      </c>
+      <c r="G108" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="H108" s="124"/>
+      <c r="I108" s="124"/>
+      <c r="J108" s="24"/>
+    </row>
+    <row r="109" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="82"/>
+      <c r="B109" s="31">
+        <v>41132</v>
+      </c>
+      <c r="C109" s="32">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D109" s="32">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="E109" s="24">
+        <v>0</v>
+      </c>
+      <c r="F109" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="G109" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" s="124"/>
+      <c r="I109" s="124"/>
+      <c r="J109" s="24"/>
+    </row>
+    <row r="110" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="82"/>
+      <c r="B110" s="31">
+        <v>41132</v>
+      </c>
+      <c r="C110" s="32">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D110" s="32">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E110" s="24">
+        <v>2</v>
+      </c>
+      <c r="F110" s="24">
+        <v>4</v>
+      </c>
+      <c r="G110" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="H110" s="124"/>
+      <c r="I110" s="124"/>
+      <c r="J110" s="24"/>
+    </row>
+    <row r="111" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="83"/>
+      <c r="B111" s="31">
+        <v>41133</v>
+      </c>
+      <c r="C111" s="32">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D111" s="32">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E111" s="24">
+        <v>2</v>
+      </c>
+      <c r="F111" s="24">
+        <v>4</v>
+      </c>
+      <c r="G111" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="H111" s="124"/>
+      <c r="I111" s="124"/>
+      <c r="J111" s="24"/>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="53"/>
+      <c r="B112" s="52">
         <v>41136</v>
       </c>
-      <c r="C107" s="101" t="s">
+      <c r="C112" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="D107" s="102"/>
-      <c r="E107" s="102"/>
-      <c r="F107" s="102"/>
-      <c r="G107" s="102"/>
-      <c r="H107" s="102"/>
-      <c r="I107" s="102"/>
-      <c r="J107" s="103"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E108" s="26" t="s">
+      <c r="D112" s="114"/>
+      <c r="E112" s="114"/>
+      <c r="F112" s="114"/>
+      <c r="G112" s="114"/>
+      <c r="H112" s="114"/>
+      <c r="I112" s="114"/>
+      <c r="J112" s="115"/>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F108" s="26">
-        <f>SUM(F7:F106)</f>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E109" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F109" s="26">
-        <f>F108/12</f>
-        <v>18.75</v>
+      <c r="F113" s="26">
+        <f>SUM(F7:F111)</f>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F114" s="26">
+        <f>F113/12</f>
+        <v>18.583333333333332</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="A33:A40"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A32"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A53:A64"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="A99:A111"/>
+    <mergeCell ref="J45:J49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="I74:I79"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="A78:A85"/>
+    <mergeCell ref="A86:A98"/>
+    <mergeCell ref="I89:I90"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="I45:I49"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="E50:E51"/>
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="C45:C49"/>
     <mergeCell ref="F27:F28"/>
@@ -3467,52 +3598,41 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="C27:C28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A32"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B36:B39"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="I45:I49"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="C107:J107"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A78:A85"/>
-    <mergeCell ref="A99:A106"/>
-    <mergeCell ref="A86:A98"/>
-    <mergeCell ref="J45:J49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="I53:I58"/>
-    <mergeCell ref="I74:I79"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="C53:C58"/>
-    <mergeCell ref="D53:D58"/>
-    <mergeCell ref="E53:E58"/>
-    <mergeCell ref="I89:I90"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="A53:A64"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E45:E49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/trunk/SEP/Time Log & Planned Weekly/Timelog_HuyHuynh_SEP.xlsx
+++ b/trunk/SEP/Time Log & Planned Weekly/Timelog_HuyHuynh_SEP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>SUMMARY: TIME FOR DOING PROJECT</t>
   </si>
@@ -814,6 +814,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -874,33 +889,30 @@
     <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -908,15 +920,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -932,9 +935,6 @@
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1237,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M114"/>
+  <dimension ref="A2:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:A111"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,7 +1335,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84">
+      <c r="A7" s="89">
         <v>1</v>
       </c>
       <c r="B7" s="31">
@@ -1368,7 +1368,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
       <c r="D8" s="34"/>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="M8" s="30">
         <f>SUM(F30:F39)+SUM(F60:F69) + SUM(F86:F94)</f>
-        <v>61.5</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="36"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
@@ -1400,7 +1400,7 @@
       <c r="M9" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
+      <c r="A10" s="90"/>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
       <c r="D10" s="32"/>
@@ -1413,29 +1413,29 @@
       <c r="M10" s="30"/>
     </row>
     <row r="11" spans="1:13" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
       <c r="M11" s="30"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
       <c r="L12" s="26" t="s">
         <v>20</v>
       </c>
@@ -1445,7 +1445,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84">
+      <c r="A13" s="89">
         <v>2</v>
       </c>
       <c r="B13" s="31">
@@ -1478,7 +1478,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="31">
         <v>41051</v>
       </c>
@@ -1503,28 +1503,28 @@
       <c r="M14" s="30"/>
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="87">
+      <c r="A15" s="90"/>
+      <c r="B15" s="92">
         <v>41052</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="94">
         <v>0.875</v>
       </c>
-      <c r="D15" s="89">
+      <c r="D15" s="94">
         <v>0.9375</v>
       </c>
-      <c r="E15" s="91">
-        <v>0</v>
-      </c>
-      <c r="F15" s="91">
+      <c r="E15" s="96">
+        <v>0</v>
+      </c>
+      <c r="F15" s="96">
         <v>1.5</v>
       </c>
-      <c r="G15" s="91" t="s">
+      <c r="G15" s="96" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="38"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="101"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
       <c r="L15" s="26" t="s">
         <v>25</v>
       </c>
@@ -1534,16 +1534,16 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
+      <c r="A16" s="90"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
       <c r="H16" s="33"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
       <c r="L16" s="26" t="s">
         <v>26</v>
       </c>
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="91"/>
       <c r="B17" s="40"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41"/>
@@ -1565,45 +1565,45 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81">
+      <c r="A18" s="86">
         <v>3</v>
       </c>
-      <c r="B18" s="93">
+      <c r="B18" s="98">
         <v>41057</v>
       </c>
-      <c r="C18" s="95">
+      <c r="C18" s="100">
         <v>0.375</v>
       </c>
-      <c r="D18" s="95">
+      <c r="D18" s="100">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E18" s="101">
-        <v>0</v>
-      </c>
-      <c r="F18" s="101">
+      <c r="E18" s="84">
+        <v>0</v>
+      </c>
+      <c r="F18" s="84">
         <v>2</v>
       </c>
-      <c r="G18" s="101" t="s">
+      <c r="G18" s="84" t="s">
         <v>21</v>
       </c>
       <c r="H18" s="25"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
+      <c r="A19" s="87"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="43">
         <v>41058</v>
       </c>
@@ -1627,7 +1627,7 @@
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="43">
         <v>41059</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="J21" s="60"/>
     </row>
     <row r="22" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="43">
         <v>41059</v>
       </c>
@@ -1675,103 +1675,103 @@
       <c r="J22" s="60"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="100">
+      <c r="A23" s="87"/>
+      <c r="B23" s="105">
         <v>41060</v>
       </c>
-      <c r="C23" s="95">
+      <c r="C23" s="100">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D23" s="95">
+      <c r="D23" s="100">
         <v>0.875</v>
       </c>
-      <c r="E23" s="101">
-        <v>0</v>
-      </c>
-      <c r="F23" s="101">
+      <c r="E23" s="84">
+        <v>0</v>
+      </c>
+      <c r="F23" s="84">
         <v>2</v>
       </c>
-      <c r="G23" s="101" t="s">
+      <c r="G23" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="103"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="106"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="103"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="106"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="93">
+      <c r="A27" s="87"/>
+      <c r="B27" s="98">
         <v>41061</v>
       </c>
-      <c r="C27" s="95">
+      <c r="C27" s="100">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D27" s="95">
+      <c r="D27" s="100">
         <v>0.875</v>
       </c>
-      <c r="E27" s="101">
-        <v>0</v>
-      </c>
-      <c r="F27" s="101">
+      <c r="E27" s="84">
+        <v>0</v>
+      </c>
+      <c r="F27" s="84">
         <v>1</v>
       </c>
-      <c r="G27" s="101" t="s">
+      <c r="G27" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
       <c r="D29" s="32"/>
@@ -1783,153 +1783,153 @@
       <c r="J29" s="24"/>
     </row>
     <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="97"/>
+      <c r="A30" s="87"/>
+      <c r="B30" s="102"/>
       <c r="C30" s="48"/>
       <c r="D30" s="48"/>
       <c r="E30" s="49"/>
       <c r="F30" s="49"/>
       <c r="G30" s="49"/>
       <c r="H30" s="49"/>
-      <c r="I30" s="101"/>
+      <c r="I30" s="84"/>
       <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="87"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
       <c r="G31" s="49"/>
       <c r="H31" s="49"/>
-      <c r="I31" s="103"/>
+      <c r="I31" s="106"/>
       <c r="J31" s="25"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83"/>
-      <c r="B32" s="99"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="50"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
-      <c r="I32" s="102"/>
+      <c r="I32" s="85"/>
       <c r="J32" s="24"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="81">
+      <c r="A33" s="86">
         <v>4</v>
       </c>
-      <c r="B33" s="93">
+      <c r="B33" s="98">
         <v>41065</v>
       </c>
-      <c r="C33" s="95">
+      <c r="C33" s="100">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D33" s="95">
+      <c r="D33" s="100">
         <v>0.875</v>
       </c>
-      <c r="E33" s="101">
-        <v>0</v>
-      </c>
-      <c r="F33" s="101">
+      <c r="E33" s="84">
+        <v>0</v>
+      </c>
+      <c r="F33" s="84">
         <v>1</v>
       </c>
-      <c r="G33" s="101" t="s">
+      <c r="G33" s="84" t="s">
         <v>28</v>
       </c>
       <c r="H33" s="25"/>
-      <c r="I33" s="101"/>
+      <c r="I33" s="84"/>
       <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="82"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
       <c r="H34" s="25"/>
-      <c r="I34" s="103"/>
+      <c r="I34" s="106"/>
       <c r="J34" s="25"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
       <c r="H35" s="24"/>
-      <c r="I35" s="102"/>
+      <c r="I35" s="85"/>
       <c r="J35" s="24"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="93">
+      <c r="A36" s="87"/>
+      <c r="B36" s="98">
         <v>41066</v>
       </c>
-      <c r="C36" s="95">
+      <c r="C36" s="100">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D36" s="95">
+      <c r="D36" s="100">
         <v>0.875</v>
       </c>
-      <c r="E36" s="101">
-        <v>0</v>
-      </c>
-      <c r="F36" s="101">
+      <c r="E36" s="84">
+        <v>0</v>
+      </c>
+      <c r="F36" s="84">
         <v>1</v>
       </c>
-      <c r="G36" s="101" t="s">
+      <c r="G36" s="84" t="s">
         <v>41</v>
       </c>
       <c r="H36" s="25"/>
-      <c r="I36" s="101"/>
+      <c r="I36" s="84"/>
       <c r="J36" s="25"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="105"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
       <c r="H37" s="25"/>
-      <c r="I37" s="103"/>
+      <c r="I37" s="106"/>
       <c r="J37" s="25"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="105"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
       <c r="H38" s="25"/>
-      <c r="I38" s="103"/>
+      <c r="I38" s="106"/>
       <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="102"/>
+      <c r="I39" s="85"/>
       <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="83"/>
+      <c r="A40" s="88"/>
       <c r="B40" s="31">
         <v>41067</v>
       </c>
@@ -2001,117 +2001,117 @@
       <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84">
+      <c r="A45" s="89">
         <v>5</v>
       </c>
-      <c r="B45" s="87">
+      <c r="B45" s="92">
         <v>41075</v>
       </c>
-      <c r="C45" s="89">
+      <c r="C45" s="94">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D45" s="89">
+      <c r="D45" s="94">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E45" s="91">
-        <v>0</v>
-      </c>
-      <c r="F45" s="91">
+      <c r="E45" s="96">
+        <v>0</v>
+      </c>
+      <c r="F45" s="96">
         <v>3</v>
       </c>
-      <c r="G45" s="91" t="s">
+      <c r="G45" s="96" t="s">
         <v>42</v>
       </c>
       <c r="H45" s="38"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
     </row>
     <row r="47" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="85"/>
-      <c r="B47" s="106"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
+      <c r="A47" s="90"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
       <c r="H47" s="38"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
     </row>
     <row r="48" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="108"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="106"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="85"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
       <c r="H49" s="33"/>
-      <c r="I49" s="102"/>
-      <c r="J49" s="102"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="85"/>
-      <c r="B50" s="87">
+      <c r="A50" s="90"/>
+      <c r="B50" s="92">
         <v>41076</v>
       </c>
-      <c r="C50" s="89">
+      <c r="C50" s="94">
         <v>0.375</v>
       </c>
-      <c r="D50" s="89">
+      <c r="D50" s="94">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E50" s="91">
-        <v>0</v>
-      </c>
-      <c r="F50" s="91">
+      <c r="E50" s="96">
+        <v>0</v>
+      </c>
+      <c r="F50" s="96">
         <v>2.5</v>
       </c>
-      <c r="G50" s="91" t="s">
+      <c r="G50" s="96" t="s">
         <v>40</v>
       </c>
       <c r="H50" s="38"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="85"/>
-      <c r="B51" s="106"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="103"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
     </row>
     <row r="52" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
+      <c r="A52" s="91"/>
       <c r="B52" s="63">
         <v>41076</v>
       </c>
@@ -2135,93 +2135,93 @@
       <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="84">
+      <c r="A53" s="89">
         <v>6</v>
       </c>
-      <c r="B53" s="87">
+      <c r="B53" s="92">
         <v>41077</v>
       </c>
-      <c r="C53" s="89">
+      <c r="C53" s="94">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D53" s="89">
+      <c r="D53" s="94">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E53" s="91">
-        <v>0</v>
-      </c>
-      <c r="F53" s="91">
+      <c r="E53" s="96">
+        <v>0</v>
+      </c>
+      <c r="F53" s="96">
         <v>4</v>
       </c>
-      <c r="G53" s="91" t="s">
+      <c r="G53" s="96" t="s">
         <v>44</v>
       </c>
       <c r="H53" s="38"/>
-      <c r="I53" s="101"/>
+      <c r="I53" s="84"/>
       <c r="J53" s="25"/>
     </row>
     <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="85"/>
-      <c r="B54" s="106"/>
-      <c r="C54" s="107"/>
-      <c r="D54" s="107"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
+      <c r="A54" s="90"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="109"/>
+      <c r="D54" s="109"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
       <c r="H54" s="38"/>
-      <c r="I54" s="103"/>
+      <c r="I54" s="106"/>
       <c r="J54" s="25"/>
     </row>
     <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="85"/>
-      <c r="B55" s="106"/>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
+      <c r="A55" s="90"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
       <c r="H55" s="38"/>
-      <c r="I55" s="103"/>
+      <c r="I55" s="106"/>
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="85"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="107"/>
-      <c r="D56" s="107"/>
-      <c r="E56" s="109"/>
-      <c r="F56" s="109"/>
-      <c r="G56" s="109"/>
+      <c r="A56" s="90"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="109"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
       <c r="H56" s="38"/>
-      <c r="I56" s="103"/>
+      <c r="I56" s="106"/>
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="85"/>
-      <c r="B57" s="106"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="109"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="109"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
       <c r="H57" s="38"/>
-      <c r="I57" s="103"/>
+      <c r="I57" s="106"/>
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="85"/>
-      <c r="B58" s="106"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
+      <c r="A58" s="90"/>
+      <c r="B58" s="113"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="95"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="97"/>
       <c r="H58" s="38"/>
-      <c r="I58" s="103"/>
+      <c r="I58" s="106"/>
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="85"/>
+      <c r="A59" s="90"/>
       <c r="B59" s="63">
         <v>41078</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="J59" s="54"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="85"/>
+      <c r="A60" s="90"/>
       <c r="B60" s="63">
         <v>41078</v>
       </c>
@@ -2269,7 +2269,7 @@
       <c r="J60" s="35"/>
     </row>
     <row r="61" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="85"/>
+      <c r="A61" s="90"/>
       <c r="B61" s="63">
         <v>41079</v>
       </c>
@@ -2295,7 +2295,7 @@
       <c r="J61" s="35"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="85"/>
+      <c r="A62" s="90"/>
       <c r="B62" s="63">
         <v>41079</v>
       </c>
@@ -2319,7 +2319,7 @@
       <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="85"/>
+      <c r="A63" s="90"/>
       <c r="B63" s="63">
         <v>41080</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="J63" s="35"/>
     </row>
     <row r="64" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="86"/>
+      <c r="A64" s="91"/>
       <c r="B64" s="63">
         <v>40352</v>
       </c>
@@ -2393,7 +2393,7 @@
       <c r="J65" s="55"/>
     </row>
     <row r="66" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="110">
+      <c r="A66" s="114">
         <v>9</v>
       </c>
       <c r="B66" s="63">
@@ -2419,7 +2419,7 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="111"/>
+      <c r="A67" s="115"/>
       <c r="B67" s="63">
         <v>41102</v>
       </c>
@@ -2443,7 +2443,7 @@
       <c r="J67" s="24"/>
     </row>
     <row r="68" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="111"/>
+      <c r="A68" s="115"/>
       <c r="B68" s="63">
         <v>41103</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="J68" s="54"/>
     </row>
     <row r="69" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="111"/>
+      <c r="A69" s="115"/>
       <c r="B69" s="56">
         <v>41104</v>
       </c>
@@ -2491,7 +2491,7 @@
       <c r="J69" s="54"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="112"/>
+      <c r="A70" s="116"/>
       <c r="B70" s="63">
         <v>41105</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="J70" s="54"/>
     </row>
     <row r="71" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="84">
+      <c r="A71" s="89">
         <v>10</v>
       </c>
       <c r="B71" s="63">
@@ -2541,7 +2541,7 @@
       <c r="J71" s="54"/>
     </row>
     <row r="72" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="85"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="56">
         <v>41107</v>
       </c>
@@ -2565,7 +2565,7 @@
       <c r="J72" s="24"/>
     </row>
     <row r="73" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="85"/>
+      <c r="A73" s="90"/>
       <c r="B73" s="63">
         <v>41108</v>
       </c>
@@ -2589,7 +2589,7 @@
       <c r="J73" s="54"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="85"/>
+      <c r="A74" s="90"/>
       <c r="B74" s="63">
         <v>41109</v>
       </c>
@@ -2609,11 +2609,11 @@
         <v>51</v>
       </c>
       <c r="H74" s="78"/>
-      <c r="I74" s="101"/>
+      <c r="I74" s="84"/>
       <c r="J74" s="25"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="85"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="56">
         <v>41110</v>
       </c>
@@ -2633,11 +2633,11 @@
         <v>52</v>
       </c>
       <c r="H75" s="38"/>
-      <c r="I75" s="103"/>
+      <c r="I75" s="106"/>
       <c r="J75" s="25"/>
     </row>
     <row r="76" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="85"/>
+      <c r="A76" s="90"/>
       <c r="B76" s="63">
         <v>41111</v>
       </c>
@@ -2657,11 +2657,11 @@
         <v>53</v>
       </c>
       <c r="H76" s="38"/>
-      <c r="I76" s="103"/>
+      <c r="I76" s="106"/>
       <c r="J76" s="25"/>
     </row>
     <row r="77" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="86"/>
+      <c r="A77" s="91"/>
       <c r="B77" s="63">
         <v>41112</v>
       </c>
@@ -2681,11 +2681,11 @@
         <v>54</v>
       </c>
       <c r="H77" s="38"/>
-      <c r="I77" s="103"/>
+      <c r="I77" s="106"/>
       <c r="J77" s="25"/>
     </row>
     <row r="78" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="84">
+      <c r="A78" s="89">
         <v>11</v>
       </c>
       <c r="B78" s="56">
@@ -2707,11 +2707,11 @@
         <v>55</v>
       </c>
       <c r="H78" s="38"/>
-      <c r="I78" s="103"/>
+      <c r="I78" s="106"/>
       <c r="J78" s="25"/>
     </row>
     <row r="79" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="85"/>
+      <c r="A79" s="90"/>
       <c r="B79" s="56">
         <v>41114</v>
       </c>
@@ -2731,11 +2731,11 @@
         <v>56</v>
       </c>
       <c r="H79" s="38"/>
-      <c r="I79" s="103"/>
+      <c r="I79" s="106"/>
       <c r="J79" s="25"/>
     </row>
     <row r="80" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="85"/>
+      <c r="A80" s="90"/>
       <c r="B80" s="63">
         <v>41115</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="J80" s="54"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="85"/>
+      <c r="A81" s="90"/>
       <c r="B81" s="36">
         <v>41116</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="J81" s="35"/>
     </row>
     <row r="82" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="85"/>
+      <c r="A82" s="90"/>
       <c r="B82" s="63">
         <v>41117</v>
       </c>
@@ -2807,7 +2807,7 @@
       <c r="J82" s="35"/>
     </row>
     <row r="83" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="85"/>
+      <c r="A83" s="90"/>
       <c r="B83" s="36">
         <v>41118</v>
       </c>
@@ -2818,10 +2818,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E83" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" s="33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G83" s="33" t="s">
         <v>64</v>
@@ -2831,7 +2831,7 @@
       <c r="J83" s="24"/>
     </row>
     <row r="84" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="85"/>
+      <c r="A84" s="90"/>
       <c r="B84" s="56">
         <v>41119</v>
       </c>
@@ -2855,7 +2855,7 @@
       <c r="J84" s="24"/>
     </row>
     <row r="85" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="86"/>
+      <c r="A85" s="91"/>
       <c r="B85" s="36">
         <v>41119</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="J85" s="24"/>
     </row>
     <row r="86" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="81">
+      <c r="A86" s="86">
         <v>12</v>
       </c>
       <c r="B86" s="31">
@@ -2905,7 +2905,7 @@
       <c r="J86" s="24"/>
     </row>
     <row r="87" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="82"/>
+      <c r="A87" s="87"/>
       <c r="B87" s="31">
         <v>41120</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="J87" s="24"/>
     </row>
     <row r="88" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="82"/>
+      <c r="A88" s="87"/>
       <c r="B88" s="40">
         <v>41121</v>
       </c>
@@ -2953,43 +2953,43 @@
       <c r="J88" s="35"/>
     </row>
     <row r="89" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="82"/>
-      <c r="B89" s="93">
+      <c r="A89" s="87"/>
+      <c r="B89" s="98">
         <v>41121</v>
       </c>
-      <c r="C89" s="95">
+      <c r="C89" s="100">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D89" s="95">
+      <c r="D89" s="100">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E89" s="101">
-        <v>2</v>
-      </c>
-      <c r="F89" s="101">
-        <v>5.5</v>
-      </c>
-      <c r="G89" s="101" t="s">
+      <c r="E89" s="84">
+        <v>1</v>
+      </c>
+      <c r="F89" s="84">
+        <v>6.5</v>
+      </c>
+      <c r="G89" s="84" t="s">
         <v>66</v>
       </c>
       <c r="H89" s="25"/>
-      <c r="I89" s="101"/>
-      <c r="J89" s="101"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
     </row>
     <row r="90" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="82"/>
-      <c r="B90" s="94"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="96"/>
-      <c r="E90" s="102"/>
-      <c r="F90" s="102"/>
-      <c r="G90" s="102"/>
+      <c r="A90" s="87"/>
+      <c r="B90" s="99"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
       <c r="H90" s="24"/>
-      <c r="I90" s="102"/>
-      <c r="J90" s="102"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
     </row>
     <row r="91" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="82"/>
+      <c r="A91" s="87"/>
       <c r="B91" s="62">
         <v>41121</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="J91" s="59"/>
     </row>
     <row r="92" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="82"/>
+      <c r="A92" s="87"/>
       <c r="B92" s="62">
         <v>41122</v>
       </c>
@@ -3037,7 +3037,7 @@
       <c r="J92" s="59"/>
     </row>
     <row r="93" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="82"/>
+      <c r="A93" s="87"/>
       <c r="B93" s="43">
         <v>41123</v>
       </c>
@@ -3061,7 +3061,7 @@
       <c r="J93" s="54"/>
     </row>
     <row r="94" spans="1:10" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="82"/>
+      <c r="A94" s="87"/>
       <c r="B94" s="31">
         <v>41123</v>
       </c>
@@ -3072,10 +3072,10 @@
         <v>0.8125</v>
       </c>
       <c r="E94" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G94" s="46" t="s">
         <v>68</v>
@@ -3085,7 +3085,7 @@
       <c r="J94" s="24"/>
     </row>
     <row r="95" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="82"/>
+      <c r="A95" s="87"/>
       <c r="B95" s="52">
         <v>41124</v>
       </c>
@@ -3096,10 +3096,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E95" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" s="35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G95" s="46" t="s">
         <v>69</v>
@@ -3109,7 +3109,7 @@
       <c r="J95" s="35"/>
     </row>
     <row r="96" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="82"/>
+      <c r="A96" s="87"/>
       <c r="B96" s="40">
         <v>41124</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="J96" s="24"/>
     </row>
     <row r="97" spans="1:10" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="82"/>
+      <c r="A97" s="87"/>
       <c r="B97" s="31">
         <v>41125</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="J97" s="24"/>
     </row>
     <row r="98" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="83"/>
+      <c r="A98" s="88"/>
       <c r="B98" s="31">
         <v>41126</v>
       </c>
@@ -3181,7 +3181,7 @@
       <c r="J98" s="24"/>
     </row>
     <row r="99" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="81">
+      <c r="A99" s="86">
         <v>13</v>
       </c>
       <c r="B99" s="31">
@@ -3207,7 +3207,7 @@
       <c r="J99" s="24"/>
     </row>
     <row r="100" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="82"/>
+      <c r="A100" s="87"/>
       <c r="B100" s="31">
         <v>41127</v>
       </c>
@@ -3231,7 +3231,7 @@
       <c r="J100" s="24"/>
     </row>
     <row r="101" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="82"/>
+      <c r="A101" s="87"/>
       <c r="B101" s="31">
         <v>41127</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="J101" s="24"/>
     </row>
     <row r="102" spans="1:10" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="82"/>
+      <c r="A102" s="87"/>
       <c r="B102" s="31">
         <v>41128</v>
       </c>
@@ -3266,10 +3266,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E102" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F102" s="24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G102" s="24" t="s">
         <v>76</v>
@@ -3279,7 +3279,7 @@
       <c r="J102" s="24"/>
     </row>
     <row r="103" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="82"/>
+      <c r="A103" s="87"/>
       <c r="B103" s="31">
         <v>41129</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="J103" s="24"/>
     </row>
     <row r="104" spans="1:10" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="82"/>
+      <c r="A104" s="87"/>
       <c r="B104" s="31">
         <v>41129</v>
       </c>
@@ -3314,10 +3314,10 @@
         <v>0.875</v>
       </c>
       <c r="E104" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G104" s="24" t="s">
         <v>78</v>
@@ -3327,7 +3327,7 @@
       <c r="J104" s="24"/>
     </row>
     <row r="105" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="82"/>
+      <c r="A105" s="87"/>
       <c r="B105" s="31">
         <v>41130</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="J105" s="24"/>
     </row>
     <row r="106" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="82"/>
+      <c r="A106" s="87"/>
       <c r="B106" s="31">
         <v>41130</v>
       </c>
@@ -3362,20 +3362,20 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E106" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106" s="24">
-        <v>5</v>
-      </c>
-      <c r="G106" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="G106" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="H106" s="124"/>
-      <c r="I106" s="124"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
       <c r="J106" s="24"/>
     </row>
     <row r="107" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="82"/>
+      <c r="A107" s="87"/>
       <c r="B107" s="31">
         <v>41131</v>
       </c>
@@ -3391,15 +3391,15 @@
       <c r="F107" s="24">
         <v>2</v>
       </c>
-      <c r="G107" s="124" t="s">
+      <c r="G107" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="H107" s="124"/>
-      <c r="I107" s="124"/>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
       <c r="J107" s="24"/>
     </row>
     <row r="108" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="82"/>
+      <c r="A108" s="87"/>
       <c r="B108" s="31">
         <v>41131</v>
       </c>
@@ -3410,20 +3410,20 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E108" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108" s="24">
-        <v>5</v>
-      </c>
-      <c r="G108" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="G108" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="H108" s="124"/>
-      <c r="I108" s="124"/>
+      <c r="H108" s="24"/>
+      <c r="I108" s="24"/>
       <c r="J108" s="24"/>
     </row>
     <row r="109" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="82"/>
+      <c r="A109" s="87"/>
       <c r="B109" s="31">
         <v>41132</v>
       </c>
@@ -3439,15 +3439,15 @@
       <c r="F109" s="24">
         <v>1.5</v>
       </c>
-      <c r="G109" s="124" t="s">
+      <c r="G109" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="H109" s="124"/>
-      <c r="I109" s="124"/>
+      <c r="H109" s="24"/>
+      <c r="I109" s="24"/>
       <c r="J109" s="24"/>
     </row>
     <row r="110" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="82"/>
+      <c r="A110" s="87"/>
       <c r="B110" s="31">
         <v>41132</v>
       </c>
@@ -3455,23 +3455,23 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="D110" s="32">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="E110" s="24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" s="24">
-        <v>4</v>
-      </c>
-      <c r="G110" s="124" t="s">
+        <v>5.5</v>
+      </c>
+      <c r="G110" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="H110" s="124"/>
-      <c r="I110" s="124"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
       <c r="J110" s="24"/>
     </row>
     <row r="111" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="83"/>
+      <c r="A111" s="87"/>
       <c r="B111" s="31">
         <v>41133</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D111" s="32">
-        <v>0.83333333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E111" s="24">
         <v>2</v>
@@ -3487,45 +3487,69 @@
       <c r="F111" s="24">
         <v>4</v>
       </c>
-      <c r="G111" s="124" t="s">
+      <c r="G111" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="H111" s="124"/>
-      <c r="I111" s="124"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
       <c r="J111" s="24"/>
     </row>
-    <row r="112" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="53"/>
-      <c r="B112" s="52">
+    <row r="112" spans="1:10" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="88"/>
+      <c r="B112" s="31">
+        <v>41133</v>
+      </c>
+      <c r="C112" s="32">
+        <v>0.875</v>
+      </c>
+      <c r="D112" s="32">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E112" s="24">
+        <v>0</v>
+      </c>
+      <c r="F112" s="24">
+        <v>2</v>
+      </c>
+      <c r="G112" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="53"/>
+      <c r="B113" s="52">
         <v>41136</v>
       </c>
-      <c r="C112" s="113" t="s">
+      <c r="C113" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="D112" s="114"/>
-      <c r="E112" s="114"/>
-      <c r="F112" s="114"/>
-      <c r="G112" s="114"/>
-      <c r="H112" s="114"/>
-      <c r="I112" s="114"/>
-      <c r="J112" s="115"/>
-    </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E113" s="26" t="s">
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
+      <c r="G113" s="111"/>
+      <c r="H113" s="111"/>
+      <c r="I113" s="111"/>
+      <c r="J113" s="112"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E114" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F113" s="26">
+      <c r="F114" s="26">
         <f>SUM(F7:F111)</f>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E114" s="26" t="s">
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E115" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F114" s="26">
-        <f>F113/12</f>
-        <v>18.583333333333332</v>
+      <c r="F115" s="26">
+        <f>F114/12</f>
+        <v>19.375</v>
       </c>
     </row>
   </sheetData>
@@ -3534,7 +3558,6 @@
     <mergeCell ref="A53:A64"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="E45:E49"/>
-    <mergeCell ref="A99:A111"/>
     <mergeCell ref="J45:J49"/>
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="I50:I51"/>
@@ -3550,7 +3573,11 @@
     <mergeCell ref="D53:D58"/>
     <mergeCell ref="E53:E58"/>
     <mergeCell ref="A66:A70"/>
-    <mergeCell ref="C112:J112"/>
+    <mergeCell ref="F53:F58"/>
+    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C113:J113"/>
     <mergeCell ref="B89:B90"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="D89:D90"/>
@@ -3562,8 +3589,7 @@
     <mergeCell ref="A86:A98"/>
     <mergeCell ref="I89:I90"/>
     <mergeCell ref="J89:J90"/>
-    <mergeCell ref="F53:F58"/>
-    <mergeCell ref="G53:G58"/>
+    <mergeCell ref="A99:A112"/>
     <mergeCell ref="I36:I39"/>
     <mergeCell ref="F45:F49"/>
     <mergeCell ref="G45:G49"/>
@@ -3573,8 +3599,6 @@
     <mergeCell ref="E36:E39"/>
     <mergeCell ref="F36:F39"/>
     <mergeCell ref="G36:G39"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="B45:B49"/>
     <mergeCell ref="C45:C49"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="G18:G19"/>
@@ -3654,30 +3678,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="119"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3686,17 +3710,17 @@
       <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123">
+      <c r="D3" s="123"/>
+      <c r="E3" s="124">
         <v>41050</v>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
